--- a/experiments/results/initial/Aggregate Statistics.xlsx
+++ b/experiments/results/initial/Aggregate Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Thesis/ASH - Planner/experiments/results/initial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Desktop/ASH-Planner/experiments/results/initial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021EB990-791B-4F01-A5FD-EB55042423CF}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18963882-D9A3-4C96-91EF-7958D22030FB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online" sheetId="1" r:id="rId1"/>
@@ -158,142 +158,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -336,7 +201,7 @@
       <sheetName val="Concat Index-wise Stdev"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="52">
           <cell r="B52"/>
           <cell r="C52" t="str">
@@ -712,18 +577,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -750,6 +615,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -1123,18 +989,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1161,6 +1027,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -1209,46 +1076,46 @@
             <v>Mean</v>
           </cell>
           <cell r="C53">
-            <v>4.441295888000039</v>
+            <v>5.7868539920000606</v>
           </cell>
           <cell r="D53">
-            <v>16.689436578000038</v>
+            <v>14.841782427999966</v>
           </cell>
           <cell r="E53">
-            <v>1.0820637365000016</v>
+            <v>1.8973040199999966</v>
           </cell>
           <cell r="F53">
-            <v>0.80448274349999915</v>
+            <v>1.1739472709999887</v>
           </cell>
           <cell r="G53">
-            <v>0.25712896818432773</v>
+            <v>0.17852125785874562</v>
           </cell>
           <cell r="H53">
-            <v>86.98</v>
+            <v>81.2</v>
           </cell>
           <cell r="I53">
-            <v>86.98</v>
+            <v>81.2</v>
           </cell>
           <cell r="J53">
-            <v>0.77767796129395361</v>
+            <v>0.83149302888349408</v>
           </cell>
           <cell r="K53">
-            <v>0.66614349935780548</v>
+            <v>0.68394225252234397</v>
           </cell>
           <cell r="L53">
-            <v>0.99767952710738528</v>
+            <v>0.92543705772781626</v>
           </cell>
           <cell r="M53">
             <v>1</v>
           </cell>
           <cell r="N53">
-            <v>0.52036907397139931</v>
+            <v>0.57010041520650978</v>
           </cell>
           <cell r="O53">
-            <v>0.77608415854106483</v>
+            <v>0.76922514065408054</v>
           </cell>
           <cell r="P53">
-            <v>0.77767796129395361</v>
+            <v>0.83149302888349408</v>
           </cell>
         </row>
         <row r="54">
@@ -1256,46 +1123,46 @@
             <v>Stdev</v>
           </cell>
           <cell r="C54">
-            <v>0.29876857760885001</v>
+            <v>0.37294178576947939</v>
           </cell>
           <cell r="D54">
-            <v>3.7988581767564398</v>
+            <v>2.0113708716324719</v>
           </cell>
           <cell r="E54">
-            <v>0.23927966918500626</v>
+            <v>0.25092117913260287</v>
           </cell>
           <cell r="F54">
-            <v>0.23505447685749969</v>
+            <v>0.25788950732942328</v>
           </cell>
           <cell r="G54">
-            <v>0.12927212702536459</v>
+            <v>7.1239719368294138E-2</v>
           </cell>
           <cell r="H54">
-            <v>8.447895523472706</v>
+            <v>7.2365286525222521</v>
           </cell>
           <cell r="I54">
-            <v>8.447895523472706</v>
+            <v>7.2365286525222521</v>
           </cell>
           <cell r="J54">
-            <v>7.8006721312238403E-2</v>
+            <v>7.3229435634959053E-2</v>
           </cell>
           <cell r="K54">
-            <v>3.60761928357256E-2</v>
+            <v>2.2015412580803969E-2</v>
           </cell>
           <cell r="L54">
-            <v>1.1543425104987926E-2</v>
+            <v>2.8124858398904204E-2</v>
           </cell>
           <cell r="M54">
             <v>0</v>
           </cell>
           <cell r="N54">
-            <v>7.6779163473359544E-2</v>
+            <v>6.6140375582517147E-2</v>
           </cell>
           <cell r="O54">
-            <v>8.0269792805854306E-2</v>
+            <v>6.8751035085393125E-2</v>
           </cell>
           <cell r="P54">
-            <v>7.8006721312238403E-2</v>
+            <v>7.3229435634959053E-2</v>
           </cell>
         </row>
         <row r="55">
@@ -1303,19 +1170,19 @@
             <v>Min</v>
           </cell>
           <cell r="C55">
-            <v>4.0213775999998234</v>
+            <v>5.2039083000000801</v>
           </cell>
           <cell r="D55">
-            <v>12.529409499999931</v>
+            <v>12.63462900000013</v>
           </cell>
           <cell r="E55">
-            <v>0.82059256874999775</v>
+            <v>1.6202284500000199</v>
           </cell>
           <cell r="F55">
-            <v>0.54355457500000881</v>
+            <v>0.92176414999994449</v>
           </cell>
           <cell r="G55">
-            <v>0.1498526533779676</v>
+            <v>0.1001917158533929</v>
           </cell>
           <cell r="H55">
             <v>71</v>
@@ -1324,25 +1191,25 @@
             <v>71</v>
           </cell>
           <cell r="J55">
-            <v>0.6633663366336634</v>
+            <v>0.69791666666666663</v>
           </cell>
           <cell r="K55">
-            <v>0.5868944419252039</v>
+            <v>0.61654763136719481</v>
           </cell>
           <cell r="L55">
-            <v>0.93616713138106566</v>
+            <v>0.86599381270602183</v>
           </cell>
           <cell r="M55">
             <v>1</v>
           </cell>
           <cell r="N55">
-            <v>0.40124415927539447</v>
+            <v>0.43029886772502135</v>
           </cell>
           <cell r="O55">
-            <v>0.64003263063807547</v>
+            <v>0.63135265803560658</v>
           </cell>
           <cell r="P55">
-            <v>0.6633663366336634</v>
+            <v>0.69791666666666663</v>
           </cell>
         </row>
         <row r="56">
@@ -1350,46 +1217,46 @@
             <v>LQ</v>
           </cell>
           <cell r="C56">
-            <v>4.1981180249995731</v>
+            <v>5.4552684250002415</v>
           </cell>
           <cell r="D56">
-            <v>14.242425150001026</v>
+            <v>13.546909799999471</v>
           </cell>
           <cell r="E56">
-            <v>0.92796714531257685</v>
+            <v>1.7376392656249848</v>
           </cell>
           <cell r="F56">
-            <v>0.65244255625000802</v>
+            <v>0.99771625937502673</v>
           </cell>
           <cell r="G56">
-            <v>0.17888818776599452</v>
+            <v>0.14168740853043738</v>
           </cell>
           <cell r="H56">
-            <v>81.75</v>
+            <v>73.5</v>
           </cell>
           <cell r="I56">
-            <v>81.75</v>
+            <v>73.5</v>
           </cell>
           <cell r="J56">
-            <v>0.71663968547641077</v>
+            <v>0.78823529411764703</v>
           </cell>
           <cell r="K56">
-            <v>0.62574633847717209</v>
+            <v>0.67967905605964907</v>
           </cell>
           <cell r="L56">
-            <v>1</v>
+            <v>0.904320401526166</v>
           </cell>
           <cell r="M56">
             <v>1</v>
           </cell>
           <cell r="N56">
-            <v>0.44781866152044175</v>
+            <v>0.53584222175049956</v>
           </cell>
           <cell r="O56">
-            <v>0.71663968547641077</v>
+            <v>0.72355626564231701</v>
           </cell>
           <cell r="P56">
-            <v>0.71663968547641077</v>
+            <v>0.78823529411764703</v>
           </cell>
         </row>
         <row r="57">
@@ -1397,46 +1264,46 @@
             <v>Med</v>
           </cell>
           <cell r="C57">
-            <v>4.4754036999998448</v>
+            <v>5.7834566500000335</v>
           </cell>
           <cell r="D57">
-            <v>14.977971399999891</v>
+            <v>14.343265450000136</v>
           </cell>
           <cell r="E57">
-            <v>0.97376360624999592</v>
+            <v>1.8406297249999655</v>
           </cell>
           <cell r="F57">
-            <v>0.70080352812492386</v>
+            <v>1.1008414062499625</v>
           </cell>
           <cell r="G57">
-            <v>0.19736336641121222</v>
+            <v>0.15627187664042716</v>
           </cell>
           <cell r="H57">
-            <v>87</v>
+            <v>82</v>
           </cell>
           <cell r="I57">
-            <v>87</v>
+            <v>82</v>
           </cell>
           <cell r="J57">
-            <v>0.77011494252873558</v>
+            <v>0.81707317073170727</v>
           </cell>
           <cell r="K57">
-            <v>0.68035797565468559</v>
+            <v>0.68830498725723377</v>
           </cell>
           <cell r="L57">
-            <v>1</v>
+            <v>0.92281366899346962</v>
           </cell>
           <cell r="M57">
             <v>1</v>
           </cell>
           <cell r="N57">
-            <v>0.52022718731077511</v>
+            <v>0.56391624687458242</v>
           </cell>
           <cell r="O57">
-            <v>0.77011494252873558</v>
+            <v>0.76576339558679618</v>
           </cell>
           <cell r="P57">
-            <v>0.77011494252873558</v>
+            <v>0.81707317073170727</v>
           </cell>
         </row>
         <row r="58">
@@ -1444,46 +1311,46 @@
             <v>UQ</v>
           </cell>
           <cell r="C58">
-            <v>4.5643811750003636</v>
+            <v>6.0486284499998249</v>
           </cell>
           <cell r="D58">
-            <v>20.530946225000065</v>
+            <v>15.033974750000212</v>
           </cell>
           <cell r="E58">
-            <v>1.3207699250000096</v>
+            <v>1.9200839062500312</v>
           </cell>
           <cell r="F58">
-            <v>1.0265164390624855</v>
+            <v>1.2271982499999901</v>
           </cell>
           <cell r="G58">
-            <v>0.29644392998884345</v>
+            <v>0.18498480049975555</v>
           </cell>
           <cell r="H58">
-            <v>93.5</v>
+            <v>85</v>
           </cell>
           <cell r="I58">
-            <v>93.5</v>
+            <v>85</v>
           </cell>
           <cell r="J58">
-            <v>0.81977513227513232</v>
+            <v>0.911689497716895</v>
           </cell>
           <cell r="K58">
-            <v>0.68961076469616311</v>
+            <v>0.69899213514520575</v>
           </cell>
           <cell r="L58">
-            <v>1</v>
+            <v>0.94994847917752567</v>
           </cell>
           <cell r="M58">
             <v>1</v>
           </cell>
           <cell r="N58">
-            <v>0.56770585516107075</v>
+            <v>0.63569938669792758</v>
           </cell>
           <cell r="O58">
-            <v>0.81977513227513232</v>
+            <v>0.8195853896101446</v>
           </cell>
           <cell r="P58">
-            <v>0.81977513227513232</v>
+            <v>0.911689497716895</v>
           </cell>
         </row>
         <row r="59">
@@ -1491,61 +1358,61 @@
             <v>Max</v>
           </cell>
           <cell r="C59">
-            <v>5.6135907000009411</v>
+            <v>6.730402399999889</v>
           </cell>
           <cell r="D59">
-            <v>26.11928910000017</v>
+            <v>21.71095390000005</v>
           </cell>
           <cell r="E59">
-            <v>1.7096369124999951</v>
+            <v>2.7548168500000401</v>
           </cell>
           <cell r="F59">
-            <v>1.4207130437500131</v>
+            <v>2.0697697999999889</v>
           </cell>
           <cell r="G59">
-            <v>0.68327393654514601</v>
+            <v>0.41617572177171541</v>
           </cell>
           <cell r="H59">
-            <v>101</v>
+            <v>96</v>
           </cell>
           <cell r="I59">
-            <v>101</v>
+            <v>96</v>
           </cell>
           <cell r="J59">
             <v>0.94366197183098588</v>
           </cell>
           <cell r="K59">
-            <v>0.71402733132645479</v>
+            <v>0.71239161062183709</v>
           </cell>
           <cell r="L59">
-            <v>1</v>
+            <v>0.97524219294818604</v>
           </cell>
           <cell r="M59">
             <v>1</v>
           </cell>
           <cell r="N59">
-            <v>0.67380043942073897</v>
+            <v>0.67225687199525475</v>
           </cell>
           <cell r="O59">
-            <v>0.94366197183098588</v>
+            <v>0.91267734160467184</v>
           </cell>
           <cell r="P59">
             <v>0.94366197183098588</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1572,6 +1439,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -1620,46 +1488,46 @@
             <v>Mean</v>
           </cell>
           <cell r="C53">
-            <v>5.7868539920000606</v>
+            <v>4.441295888000039</v>
           </cell>
           <cell r="D53">
-            <v>14.841782427999966</v>
+            <v>16.689436578000038</v>
           </cell>
           <cell r="E53">
-            <v>1.8973040199999966</v>
+            <v>1.0820637365000016</v>
           </cell>
           <cell r="F53">
-            <v>1.1739472709999887</v>
+            <v>0.80448274349999915</v>
           </cell>
           <cell r="G53">
-            <v>0.17852125785874562</v>
+            <v>0.25712896818432773</v>
           </cell>
           <cell r="H53">
-            <v>81.2</v>
+            <v>86.98</v>
           </cell>
           <cell r="I53">
-            <v>81.2</v>
+            <v>86.98</v>
           </cell>
           <cell r="J53">
-            <v>0.83149302888349408</v>
+            <v>0.77767796129395361</v>
           </cell>
           <cell r="K53">
-            <v>0.68394225252234397</v>
+            <v>0.66614349935780548</v>
           </cell>
           <cell r="L53">
-            <v>0.92543705772781626</v>
+            <v>0.99767952710738528</v>
           </cell>
           <cell r="M53">
             <v>1</v>
           </cell>
           <cell r="N53">
-            <v>0.57010041520650978</v>
+            <v>0.52036907397139931</v>
           </cell>
           <cell r="O53">
-            <v>0.76922514065408054</v>
+            <v>0.77608415854106483</v>
           </cell>
           <cell r="P53">
-            <v>0.83149302888349408</v>
+            <v>0.77767796129395361</v>
           </cell>
         </row>
         <row r="54">
@@ -1667,46 +1535,46 @@
             <v>Stdev</v>
           </cell>
           <cell r="C54">
-            <v>0.37294178576947939</v>
+            <v>0.29876857760885001</v>
           </cell>
           <cell r="D54">
-            <v>2.0113708716324719</v>
+            <v>3.7988581767564398</v>
           </cell>
           <cell r="E54">
-            <v>0.25092117913260287</v>
+            <v>0.23927966918500626</v>
           </cell>
           <cell r="F54">
-            <v>0.25788950732942328</v>
+            <v>0.23505447685749969</v>
           </cell>
           <cell r="G54">
-            <v>7.1239719368294138E-2</v>
+            <v>0.12927212702536459</v>
           </cell>
           <cell r="H54">
-            <v>7.2365286525222521</v>
+            <v>8.447895523472706</v>
           </cell>
           <cell r="I54">
-            <v>7.2365286525222521</v>
+            <v>8.447895523472706</v>
           </cell>
           <cell r="J54">
-            <v>7.3229435634959053E-2</v>
+            <v>7.8006721312238403E-2</v>
           </cell>
           <cell r="K54">
-            <v>2.2015412580803969E-2</v>
+            <v>3.60761928357256E-2</v>
           </cell>
           <cell r="L54">
-            <v>2.8124858398904204E-2</v>
+            <v>1.1543425104987926E-2</v>
           </cell>
           <cell r="M54">
             <v>0</v>
           </cell>
           <cell r="N54">
-            <v>6.6140375582517147E-2</v>
+            <v>7.6779163473359544E-2</v>
           </cell>
           <cell r="O54">
-            <v>6.8751035085393125E-2</v>
+            <v>8.0269792805854306E-2</v>
           </cell>
           <cell r="P54">
-            <v>7.3229435634959053E-2</v>
+            <v>7.8006721312238403E-2</v>
           </cell>
         </row>
         <row r="55">
@@ -1714,19 +1582,19 @@
             <v>Min</v>
           </cell>
           <cell r="C55">
-            <v>5.2039083000000801</v>
+            <v>4.0213775999998234</v>
           </cell>
           <cell r="D55">
-            <v>12.63462900000013</v>
+            <v>12.529409499999931</v>
           </cell>
           <cell r="E55">
-            <v>1.6202284500000199</v>
+            <v>0.82059256874999775</v>
           </cell>
           <cell r="F55">
-            <v>0.92176414999994449</v>
+            <v>0.54355457500000881</v>
           </cell>
           <cell r="G55">
-            <v>0.1001917158533929</v>
+            <v>0.1498526533779676</v>
           </cell>
           <cell r="H55">
             <v>71</v>
@@ -1735,25 +1603,25 @@
             <v>71</v>
           </cell>
           <cell r="J55">
-            <v>0.69791666666666663</v>
+            <v>0.6633663366336634</v>
           </cell>
           <cell r="K55">
-            <v>0.61654763136719481</v>
+            <v>0.5868944419252039</v>
           </cell>
           <cell r="L55">
-            <v>0.86599381270602183</v>
+            <v>0.93616713138106566</v>
           </cell>
           <cell r="M55">
             <v>1</v>
           </cell>
           <cell r="N55">
-            <v>0.43029886772502135</v>
+            <v>0.40124415927539447</v>
           </cell>
           <cell r="O55">
-            <v>0.63135265803560658</v>
+            <v>0.64003263063807547</v>
           </cell>
           <cell r="P55">
-            <v>0.69791666666666663</v>
+            <v>0.6633663366336634</v>
           </cell>
         </row>
         <row r="56">
@@ -1761,46 +1629,46 @@
             <v>LQ</v>
           </cell>
           <cell r="C56">
-            <v>5.4552684250002415</v>
+            <v>4.1981180249995731</v>
           </cell>
           <cell r="D56">
-            <v>13.546909799999471</v>
+            <v>14.242425150001026</v>
           </cell>
           <cell r="E56">
-            <v>1.7376392656249848</v>
+            <v>0.92796714531257685</v>
           </cell>
           <cell r="F56">
-            <v>0.99771625937502673</v>
+            <v>0.65244255625000802</v>
           </cell>
           <cell r="G56">
-            <v>0.14168740853043738</v>
+            <v>0.17888818776599452</v>
           </cell>
           <cell r="H56">
-            <v>73.5</v>
+            <v>81.75</v>
           </cell>
           <cell r="I56">
-            <v>73.5</v>
+            <v>81.75</v>
           </cell>
           <cell r="J56">
-            <v>0.78823529411764703</v>
+            <v>0.71663968547641077</v>
           </cell>
           <cell r="K56">
-            <v>0.67967905605964907</v>
+            <v>0.62574633847717209</v>
           </cell>
           <cell r="L56">
-            <v>0.904320401526166</v>
+            <v>1</v>
           </cell>
           <cell r="M56">
             <v>1</v>
           </cell>
           <cell r="N56">
-            <v>0.53584222175049956</v>
+            <v>0.44781866152044175</v>
           </cell>
           <cell r="O56">
-            <v>0.72355626564231701</v>
+            <v>0.71663968547641077</v>
           </cell>
           <cell r="P56">
-            <v>0.78823529411764703</v>
+            <v>0.71663968547641077</v>
           </cell>
         </row>
         <row r="57">
@@ -1808,46 +1676,46 @@
             <v>Med</v>
           </cell>
           <cell r="C57">
-            <v>5.7834566500000335</v>
+            <v>4.4754036999998448</v>
           </cell>
           <cell r="D57">
-            <v>14.343265450000136</v>
+            <v>14.977971399999891</v>
           </cell>
           <cell r="E57">
-            <v>1.8406297249999655</v>
+            <v>0.97376360624999592</v>
           </cell>
           <cell r="F57">
-            <v>1.1008414062499625</v>
+            <v>0.70080352812492386</v>
           </cell>
           <cell r="G57">
-            <v>0.15627187664042716</v>
+            <v>0.19736336641121222</v>
           </cell>
           <cell r="H57">
-            <v>82</v>
+            <v>87</v>
           </cell>
           <cell r="I57">
-            <v>82</v>
+            <v>87</v>
           </cell>
           <cell r="J57">
-            <v>0.81707317073170727</v>
+            <v>0.77011494252873558</v>
           </cell>
           <cell r="K57">
-            <v>0.68830498725723377</v>
+            <v>0.68035797565468559</v>
           </cell>
           <cell r="L57">
-            <v>0.92281366899346962</v>
+            <v>1</v>
           </cell>
           <cell r="M57">
             <v>1</v>
           </cell>
           <cell r="N57">
-            <v>0.56391624687458242</v>
+            <v>0.52022718731077511</v>
           </cell>
           <cell r="O57">
-            <v>0.76576339558679618</v>
+            <v>0.77011494252873558</v>
           </cell>
           <cell r="P57">
-            <v>0.81707317073170727</v>
+            <v>0.77011494252873558</v>
           </cell>
         </row>
         <row r="58">
@@ -1855,46 +1723,46 @@
             <v>UQ</v>
           </cell>
           <cell r="C58">
-            <v>6.0486284499998249</v>
+            <v>4.5643811750003636</v>
           </cell>
           <cell r="D58">
-            <v>15.033974750000212</v>
+            <v>20.530946225000065</v>
           </cell>
           <cell r="E58">
-            <v>1.9200839062500312</v>
+            <v>1.3207699250000096</v>
           </cell>
           <cell r="F58">
-            <v>1.2271982499999901</v>
+            <v>1.0265164390624855</v>
           </cell>
           <cell r="G58">
-            <v>0.18498480049975555</v>
+            <v>0.29644392998884345</v>
           </cell>
           <cell r="H58">
-            <v>85</v>
+            <v>93.5</v>
           </cell>
           <cell r="I58">
-            <v>85</v>
+            <v>93.5</v>
           </cell>
           <cell r="J58">
-            <v>0.911689497716895</v>
+            <v>0.81977513227513232</v>
           </cell>
           <cell r="K58">
-            <v>0.69899213514520575</v>
+            <v>0.68961076469616311</v>
           </cell>
           <cell r="L58">
-            <v>0.94994847917752567</v>
+            <v>1</v>
           </cell>
           <cell r="M58">
             <v>1</v>
           </cell>
           <cell r="N58">
-            <v>0.63569938669792758</v>
+            <v>0.56770585516107075</v>
           </cell>
           <cell r="O58">
-            <v>0.8195853896101446</v>
+            <v>0.81977513227513232</v>
           </cell>
           <cell r="P58">
-            <v>0.911689497716895</v>
+            <v>0.81977513227513232</v>
           </cell>
         </row>
         <row r="59">
@@ -1902,61 +1770,61 @@
             <v>Max</v>
           </cell>
           <cell r="C59">
-            <v>6.730402399999889</v>
+            <v>5.6135907000009411</v>
           </cell>
           <cell r="D59">
-            <v>21.71095390000005</v>
+            <v>26.11928910000017</v>
           </cell>
           <cell r="E59">
-            <v>2.7548168500000401</v>
+            <v>1.7096369124999951</v>
           </cell>
           <cell r="F59">
-            <v>2.0697697999999889</v>
+            <v>1.4207130437500131</v>
           </cell>
           <cell r="G59">
-            <v>0.41617572177171541</v>
+            <v>0.68327393654514601</v>
           </cell>
           <cell r="H59">
-            <v>96</v>
+            <v>101</v>
           </cell>
           <cell r="I59">
-            <v>96</v>
+            <v>101</v>
           </cell>
           <cell r="J59">
             <v>0.94366197183098588</v>
           </cell>
           <cell r="K59">
-            <v>0.71239161062183709</v>
+            <v>0.71402733132645479</v>
           </cell>
           <cell r="L59">
-            <v>0.97524219294818604</v>
+            <v>1</v>
           </cell>
           <cell r="M59">
             <v>1</v>
           </cell>
           <cell r="N59">
-            <v>0.67225687199525475</v>
+            <v>0.67380043942073897</v>
           </cell>
           <cell r="O59">
-            <v>0.91267734160467184</v>
+            <v>0.94366197183098588</v>
           </cell>
           <cell r="P59">
             <v>0.94366197183098588</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3219,6 +3087,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -3592,18 +3461,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3630,6 +3499,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -4003,18 +3873,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4041,6 +3911,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -4414,18 +4285,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4452,6 +4323,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -4825,18 +4697,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4863,6 +4735,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="52">
+          <cell r="B52"/>
           <cell r="C52" t="str">
             <v>EX_T</v>
           </cell>
@@ -5236,18 +5109,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5522,9 +5395,9 @@
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5544,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>[1]Globals!B52</f>
         <v>0</v>
@@ -5633,7 +5506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>[1]Globals!B53</f>
         <v>Mean</v>
@@ -5698,31 +5571,31 @@
         <v>11</v>
       </c>
       <c r="R3">
-        <f>AVERAGE(I3,I43,I83)</f>
+        <f t="shared" ref="R3:X9" si="0">AVERAGE(I3,I43,I83)</f>
         <v>0.80862511839566509</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(J3,J43,J83)</f>
+        <f t="shared" si="0"/>
         <v>0.69884220188580215</v>
       </c>
       <c r="T3">
-        <f>AVERAGE(K3,K43,K83)</f>
+        <f t="shared" si="0"/>
         <v>0.90513735782841442</v>
       </c>
       <c r="U3">
-        <f>AVERAGE(L3,L43,L83)</f>
+        <f t="shared" si="0"/>
         <v>0.99192255664941886</v>
       </c>
       <c r="V3">
-        <f>AVERAGE(M3,M43,M83)</f>
+        <f t="shared" si="0"/>
         <v>0.56861071867983493</v>
       </c>
       <c r="W3">
-        <f>AVERAGE(N3,N43,N83)</f>
+        <f t="shared" si="0"/>
         <v>0.72983890640878979</v>
       </c>
       <c r="X3">
-        <f>AVERAGE(O3,O43,O83)</f>
+        <f t="shared" si="0"/>
         <v>0.80262974294136635</v>
       </c>
       <c r="Y3">
@@ -5734,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>[1]Globals!B54</f>
         <v>Stdev</v>
@@ -5799,35 +5672,35 @@
         <v>12</v>
       </c>
       <c r="R4">
-        <f>AVERAGE(I4,I44,I84)</f>
+        <f t="shared" si="0"/>
         <v>9.3177068298049351E-2</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(J4,J44,J84)</f>
+        <f t="shared" si="0"/>
         <v>5.1281329736125675E-2</v>
       </c>
       <c r="T4">
-        <f>AVERAGE(K4,K44,K84)</f>
+        <f t="shared" si="0"/>
         <v>1.8416329928857361E-2</v>
       </c>
       <c r="U4">
-        <f>AVERAGE(L4,L44,L84)</f>
+        <f t="shared" si="0"/>
         <v>1.9449988157383843E-2</v>
       </c>
       <c r="V4">
-        <f>AVERAGE(M4,M44,M84)</f>
+        <f t="shared" si="0"/>
         <v>0.10575763587109316</v>
       </c>
       <c r="W4">
-        <f>AVERAGE(N4,N44,N84)</f>
+        <f t="shared" si="0"/>
         <v>8.7409354740346848E-2</v>
       </c>
       <c r="X4">
-        <f>AVERAGE(O4,O44,O84)</f>
+        <f t="shared" si="0"/>
         <v>0.10317168419331386</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y9" si="0">AVERAGE(V4:X4)</f>
+        <f t="shared" ref="Y4:Y9" si="1">AVERAGE(V4:X4)</f>
         <v>9.8779558268251286E-2</v>
       </c>
       <c r="Z4" t="b">
@@ -5835,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>[1]Globals!B55</f>
         <v>Min</v>
@@ -5900,35 +5773,35 @@
         <v>13</v>
       </c>
       <c r="R5">
-        <f>AVERAGE(I5,I45,I85)</f>
+        <f t="shared" si="0"/>
         <v>0.69014629376471481</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(J5,J45,J85)</f>
+        <f t="shared" si="0"/>
         <v>0.60184656169711981</v>
       </c>
       <c r="T5">
-        <f>AVERAGE(K5,K45,K85)</f>
+        <f t="shared" si="0"/>
         <v>0.85984518159466161</v>
       </c>
       <c r="U5">
-        <f>AVERAGE(L5,L45,L85)</f>
+        <f t="shared" si="0"/>
         <v>0.91550467707584005</v>
       </c>
       <c r="V5">
-        <f>AVERAGE(M5,M45,M85)</f>
+        <f t="shared" si="0"/>
         <v>0.41753296438804005</v>
       </c>
       <c r="W5">
-        <f>AVERAGE(N5,N45,N85)</f>
+        <f t="shared" si="0"/>
         <v>0.62364483093457679</v>
       </c>
       <c r="X5">
-        <f>AVERAGE(O5,O45,O85)</f>
+        <f t="shared" si="0"/>
         <v>0.63487066761427924</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55868282097896538</v>
       </c>
       <c r="Z5" t="b">
@@ -5936,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]Globals!B56</f>
         <v>LQ</v>
@@ -6001,35 +5874,35 @@
         <v>14</v>
       </c>
       <c r="R6">
-        <f>AVERAGE(I6,I46,I86)</f>
+        <f t="shared" si="0"/>
         <v>0.72976923033930807</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(J6,J46,J86)</f>
+        <f t="shared" si="0"/>
         <v>0.65681957530783774</v>
       </c>
       <c r="T6">
-        <f>AVERAGE(K6,K46,K86)</f>
+        <f t="shared" si="0"/>
         <v>0.89151322630233276</v>
       </c>
       <c r="U6">
-        <f>AVERAGE(L6,L46,L86)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>AVERAGE(M6,M46,M86)</f>
+        <f t="shared" si="0"/>
         <v>0.48370587504284429</v>
       </c>
       <c r="W6">
-        <f>AVERAGE(N6,N46,N86)</f>
+        <f t="shared" si="0"/>
         <v>0.65623447552236613</v>
       </c>
       <c r="X6">
-        <f>AVERAGE(O6,O46,O86)</f>
+        <f t="shared" si="0"/>
         <v>0.72753052411102681</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62249029155874569</v>
       </c>
       <c r="Z6" t="b">
@@ -6037,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>[1]Globals!B57</f>
         <v>Med</v>
@@ -6102,35 +5975,35 @@
         <v>15</v>
       </c>
       <c r="R7">
-        <f>AVERAGE(I7,I47,I87)</f>
+        <f t="shared" si="0"/>
         <v>0.76893495175962701</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(J7,J47,J87)</f>
+        <f t="shared" si="0"/>
         <v>0.69630008623158934</v>
       </c>
       <c r="T7">
-        <f>AVERAGE(K7,K47,K87)</f>
+        <f t="shared" si="0"/>
         <v>0.90941301896705795</v>
       </c>
       <c r="U7">
-        <f>AVERAGE(L7,L47,L87)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>AVERAGE(M7,M47,M87)</f>
+        <f t="shared" si="0"/>
         <v>0.5358272785162087</v>
       </c>
       <c r="W7">
-        <f>AVERAGE(N7,N47,N87)</f>
+        <f t="shared" si="0"/>
         <v>0.70132910504670365</v>
       </c>
       <c r="X7">
-        <f>AVERAGE(O7,O47,O87)</f>
+        <f t="shared" si="0"/>
         <v>0.76893495175962701</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66869711177417968</v>
       </c>
       <c r="Z7" t="b">
@@ -6138,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]Globals!B58</f>
         <v>UQ</v>
@@ -6203,35 +6076,35 @@
         <v>16</v>
       </c>
       <c r="R8">
-        <f>AVERAGE(I8,I48,I88)</f>
+        <f t="shared" si="0"/>
         <v>0.90769668270329718</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(J8,J48,J88)</f>
+        <f t="shared" si="0"/>
         <v>0.7475746701075533</v>
       </c>
       <c r="T8">
-        <f>AVERAGE(K8,K48,K88)</f>
+        <f t="shared" si="0"/>
         <v>0.91717298945327264</v>
       </c>
       <c r="U8">
-        <f>AVERAGE(L8,L48,L88)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>AVERAGE(M8,M48,M88)</f>
+        <f t="shared" si="0"/>
         <v>0.67621807156132474</v>
       </c>
       <c r="W8">
-        <f>AVERAGE(N8,N48,N88)</f>
+        <f t="shared" si="0"/>
         <v>0.81559178218736639</v>
       </c>
       <c r="X8">
-        <f>AVERAGE(O8,O48,O88)</f>
+        <f t="shared" si="0"/>
         <v>0.90769668270329718</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79983551215066273</v>
       </c>
       <c r="Z8" t="b">
@@ -6239,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>[1]Globals!B59</f>
         <v>Max</v>
@@ -6304,35 +6177,35 @@
         <v>17</v>
       </c>
       <c r="R9">
-        <f>AVERAGE(I9,I49,I89)</f>
+        <f t="shared" si="0"/>
         <v>0.97359307359307357</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(J9,J49,J89)</f>
+        <f t="shared" si="0"/>
         <v>0.77106090943314742</v>
       </c>
       <c r="T9">
-        <f>AVERAGE(K9,K49,K89)</f>
+        <f t="shared" si="0"/>
         <v>0.93294796820662163</v>
       </c>
       <c r="U9">
-        <f>AVERAGE(L9,L49,L89)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>AVERAGE(M9,M49,M89)</f>
+        <f t="shared" si="0"/>
         <v>0.74869245872541423</v>
       </c>
       <c r="W9">
-        <f>AVERAGE(N9,N49,N89)</f>
+        <f t="shared" si="0"/>
         <v>0.89019079336290508</v>
       </c>
       <c r="X9">
-        <f>AVERAGE(O9,O49,O89)</f>
+        <f t="shared" si="0"/>
         <v>0.97359307359307357</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87082544189379762</v>
       </c>
       <c r="Z9" t="b">
@@ -6340,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6357,7 +6230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>[2]Globals!B52</f>
         <v>0</v>
@@ -6446,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>[2]Globals!B53</f>
         <v>Mean</v>
@@ -6511,31 +6384,31 @@
         <v>11</v>
       </c>
       <c r="R13">
-        <f>AVERAGE(I13,I53,I93)</f>
+        <f t="shared" ref="R13:X19" si="2">AVERAGE(I13,I53,I93)</f>
         <v>0.79484026967015742</v>
       </c>
       <c r="S13">
-        <f>AVERAGE(J13,J53,J93)</f>
+        <f t="shared" si="2"/>
         <v>0.72267895485866473</v>
       </c>
       <c r="T13">
-        <f>AVERAGE(K13,K53,K93)</f>
+        <f t="shared" si="2"/>
         <v>0.95562969502461004</v>
       </c>
       <c r="U13">
-        <f>AVERAGE(L13,L53,L93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>AVERAGE(M13,M53,M93)</f>
+        <f t="shared" si="2"/>
         <v>0.57720585042278494</v>
       </c>
       <c r="W13">
-        <f>AVERAGE(N13,N53,N93)</f>
+        <f t="shared" si="2"/>
         <v>0.75862973618187801</v>
       </c>
       <c r="X13">
-        <f>AVERAGE(O13,O53,O93)</f>
+        <f t="shared" si="2"/>
         <v>0.79484026967015742</v>
       </c>
       <c r="Y13">
@@ -6547,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>[2]Globals!B54</f>
         <v>Stdev</v>
@@ -6612,35 +6485,35 @@
         <v>12</v>
       </c>
       <c r="R14">
-        <f>AVERAGE(I14,I54,I94)</f>
+        <f t="shared" si="2"/>
         <v>9.987828993728913E-2</v>
       </c>
       <c r="S14">
-        <f>AVERAGE(J14,J54,J94)</f>
+        <f t="shared" si="2"/>
         <v>3.8160297356796199E-2</v>
       </c>
       <c r="T14">
-        <f>AVERAGE(K14,K54,K94)</f>
+        <f t="shared" si="2"/>
         <v>1.8413357687846448E-2</v>
       </c>
       <c r="U14">
-        <f>AVERAGE(L14,L54,L94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>AVERAGE(M14,M54,M94)</f>
+        <f t="shared" si="2"/>
         <v>0.10070856615608026</v>
       </c>
       <c r="W14">
-        <f>AVERAGE(N14,N54,N94)</f>
+        <f t="shared" si="2"/>
         <v>9.4187019653071566E-2</v>
       </c>
       <c r="X14">
-        <f>AVERAGE(O14,O54,O94)</f>
+        <f t="shared" si="2"/>
         <v>9.987828993728913E-2</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:Y19" si="1">AVERAGE(V14:X14)</f>
+        <f t="shared" ref="Y14:Y19" si="3">AVERAGE(V14:X14)</f>
         <v>9.825795858214699E-2</v>
       </c>
       <c r="Z14" t="b">
@@ -6648,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[2]Globals!B55</f>
         <v>Min</v>
@@ -6713,35 +6586,35 @@
         <v>13</v>
       </c>
       <c r="R15">
-        <f>AVERAGE(I15,I55,I95)</f>
+        <f t="shared" si="2"/>
         <v>0.65331123166566207</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(J15,J55,J95)</f>
+        <f t="shared" si="2"/>
         <v>0.64610749493778863</v>
       </c>
       <c r="T15">
-        <f>AVERAGE(K15,K55,K95)</f>
+        <f t="shared" si="2"/>
         <v>0.91815328624629855</v>
       </c>
       <c r="U15">
-        <f>AVERAGE(L15,L55,L95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V15">
-        <f>AVERAGE(M15,M55,M95)</f>
+        <f t="shared" si="2"/>
         <v>0.42290938577173715</v>
       </c>
       <c r="W15">
-        <f>AVERAGE(N15,N55,N95)</f>
+        <f t="shared" si="2"/>
         <v>0.62013843399048563</v>
       </c>
       <c r="X15">
-        <f>AVERAGE(O15,O55,O95)</f>
+        <f t="shared" si="2"/>
         <v>0.65331123166566207</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5654530171426283</v>
       </c>
       <c r="Z15" t="b">
@@ -6749,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>[2]Globals!B56</f>
         <v>LQ</v>
@@ -6814,35 +6687,35 @@
         <v>14</v>
       </c>
       <c r="R16">
-        <f>AVERAGE(I16,I56,I96)</f>
+        <f t="shared" si="2"/>
         <v>0.70845108657390998</v>
       </c>
       <c r="S16">
-        <f>AVERAGE(J16,J56,J96)</f>
+        <f t="shared" si="2"/>
         <v>0.68861231842704884</v>
       </c>
       <c r="T16">
-        <f>AVERAGE(K16,K56,K96)</f>
+        <f t="shared" si="2"/>
         <v>0.93912393811024464</v>
       </c>
       <c r="U16">
-        <f>AVERAGE(L16,L56,L96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V16">
-        <f>AVERAGE(M16,M56,M96)</f>
+        <f t="shared" si="2"/>
         <v>0.48491205324139469</v>
       </c>
       <c r="W16">
-        <f>AVERAGE(N16,N56,N96)</f>
+        <f t="shared" si="2"/>
         <v>0.67304669122139982</v>
       </c>
       <c r="X16">
-        <f>AVERAGE(O16,O56,O96)</f>
+        <f t="shared" si="2"/>
         <v>0.70845108657390998</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62213661034556822</v>
       </c>
       <c r="Z16" t="b">
@@ -6850,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>[2]Globals!B57</f>
         <v>Med</v>
@@ -6915,35 +6788,35 @@
         <v>15</v>
       </c>
       <c r="R17">
-        <f>AVERAGE(I17,I57,I97)</f>
+        <f t="shared" si="2"/>
         <v>0.79042186571598327</v>
       </c>
       <c r="S17">
-        <f>AVERAGE(J17,J57,J97)</f>
+        <f t="shared" si="2"/>
         <v>0.73437011818328513</v>
       </c>
       <c r="T17">
-        <f>AVERAGE(K17,K57,K97)</f>
+        <f t="shared" si="2"/>
         <v>0.96164824998966625</v>
       </c>
       <c r="U17">
-        <f>AVERAGE(L17,L57,L97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V17">
-        <f>AVERAGE(M17,M57,M97)</f>
+        <f t="shared" si="2"/>
         <v>0.58009530085162508</v>
       </c>
       <c r="W17">
-        <f>AVERAGE(N17,N57,N97)</f>
+        <f t="shared" si="2"/>
         <v>0.75907493549081051</v>
       </c>
       <c r="X17">
-        <f>AVERAGE(O17,O57,O97)</f>
+        <f t="shared" si="2"/>
         <v>0.79042186571598327</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70986403401947296</v>
       </c>
       <c r="Z17" t="b">
@@ -6951,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>[2]Globals!B58</f>
         <v>UQ</v>
@@ -7016,35 +6889,35 @@
         <v>16</v>
       </c>
       <c r="R18">
-        <f>AVERAGE(I18,I58,I98)</f>
+        <f t="shared" si="2"/>
         <v>0.85887012321898126</v>
       </c>
       <c r="S18">
-        <f>AVERAGE(J18,J58,J98)</f>
+        <f t="shared" si="2"/>
         <v>0.75277492568192195</v>
       </c>
       <c r="T18">
-        <f>AVERAGE(K18,K58,K98)</f>
+        <f t="shared" si="2"/>
         <v>0.96913679141826814</v>
       </c>
       <c r="U18">
-        <f>AVERAGE(L18,L58,L98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V18">
-        <f>AVERAGE(M18,M58,M98)</f>
+        <f t="shared" si="2"/>
         <v>0.64744359676269847</v>
       </c>
       <c r="W18">
-        <f>AVERAGE(N18,N58,N98)</f>
+        <f t="shared" si="2"/>
         <v>0.82738116898294523</v>
       </c>
       <c r="X18">
-        <f>AVERAGE(O18,O58,O98)</f>
+        <f t="shared" si="2"/>
         <v>0.85887012321898126</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77789829632154162</v>
       </c>
       <c r="Z18" t="b">
@@ -7052,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>[2]Globals!B59</f>
         <v>Max</v>
@@ -7117,35 +6990,35 @@
         <v>17</v>
       </c>
       <c r="R19">
-        <f>AVERAGE(I19,I59,I99)</f>
+        <f t="shared" si="2"/>
         <v>0.99033816425120769</v>
       </c>
       <c r="S19">
-        <f>AVERAGE(J19,J59,J99)</f>
+        <f t="shared" si="2"/>
         <v>0.77627107095180825</v>
       </c>
       <c r="T19">
-        <f>AVERAGE(K19,K59,K99)</f>
+        <f t="shared" si="2"/>
         <v>0.98379445236917384</v>
       </c>
       <c r="U19">
-        <f>AVERAGE(L19,L59,L99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f>AVERAGE(M19,M59,M99)</f>
+        <f t="shared" si="2"/>
         <v>0.7676812789728823</v>
       </c>
       <c r="W19">
-        <f>AVERAGE(N19,N59,N99)</f>
+        <f t="shared" si="2"/>
         <v>0.94911900547740269</v>
       </c>
       <c r="X19">
-        <f>AVERAGE(O19,O59,O99)</f>
+        <f t="shared" si="2"/>
         <v>0.99033816425120769</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90237948290049752</v>
       </c>
       <c r="Z19" t="b">
@@ -7153,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7170,7 +7043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>[3]Globals!B52</f>
         <v>0</v>
@@ -7259,7 +7132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>[3]Globals!B53</f>
         <v>Mean</v>
@@ -7324,31 +7197,31 @@
         <v>11</v>
       </c>
       <c r="R23">
-        <f>AVERAGE(I23,I63,I103)</f>
+        <f t="shared" ref="R23:X29" si="4">AVERAGE(I23,I63,I103)</f>
         <v>0.78324544635930149</v>
       </c>
       <c r="S23">
-        <f>AVERAGE(J23,J63,J103)</f>
+        <f t="shared" si="4"/>
         <v>0.71600828394246241</v>
       </c>
       <c r="T23">
-        <f>AVERAGE(K23,K63,K103)</f>
+        <f t="shared" si="4"/>
         <v>0.97328000786617175</v>
       </c>
       <c r="U23">
-        <f>AVERAGE(L23,L63,L103)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V23">
-        <f>AVERAGE(M23,M63,M103)</f>
+        <f t="shared" si="4"/>
         <v>0.56331496722157326</v>
       </c>
       <c r="W23">
-        <f>AVERAGE(N23,N63,N103)</f>
+        <f t="shared" si="4"/>
         <v>0.76110439682155029</v>
       </c>
       <c r="X23">
-        <f>AVERAGE(O23,O63,O103)</f>
+        <f t="shared" si="4"/>
         <v>0.78324544635930149</v>
       </c>
       <c r="Y23">
@@ -7360,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>[3]Globals!B54</f>
         <v>Stdev</v>
@@ -7425,35 +7298,35 @@
         <v>12</v>
       </c>
       <c r="R24">
-        <f>AVERAGE(I24,I64,I104)</f>
+        <f t="shared" si="4"/>
         <v>9.4202616371219183E-2</v>
       </c>
       <c r="S24">
-        <f>AVERAGE(J24,J64,J104)</f>
+        <f t="shared" si="4"/>
         <v>3.6597242028872684E-2</v>
       </c>
       <c r="T24">
-        <f>AVERAGE(K24,K64,K104)</f>
+        <f t="shared" si="4"/>
         <v>1.439488404527675E-2</v>
       </c>
       <c r="U24">
-        <f>AVERAGE(L24,L64,L104)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>AVERAGE(M24,M64,M104)</f>
+        <f t="shared" si="4"/>
         <v>9.7909790270869504E-2</v>
       </c>
       <c r="W24">
-        <f>AVERAGE(N24,N64,N104)</f>
+        <f t="shared" si="4"/>
         <v>9.3209936149607528E-2</v>
       </c>
       <c r="X24">
-        <f>AVERAGE(O24,O64,O104)</f>
+        <f t="shared" si="4"/>
         <v>9.4202616371219183E-2</v>
       </c>
       <c r="Y24">
-        <f t="shared" ref="Y24:Y29" si="2">AVERAGE(V24:X24)</f>
+        <f t="shared" ref="Y24:Y29" si="5">AVERAGE(V24:X24)</f>
         <v>9.5107447597232067E-2</v>
       </c>
       <c r="Z24" t="b">
@@ -7461,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>[3]Globals!B55</f>
         <v>Min</v>
@@ -7526,35 +7399,35 @@
         <v>13</v>
       </c>
       <c r="R25">
-        <f>AVERAGE(I25,I65,I105)</f>
+        <f t="shared" si="4"/>
         <v>0.68853342749529178</v>
       </c>
       <c r="S25">
-        <f>AVERAGE(J25,J65,J105)</f>
+        <f t="shared" si="4"/>
         <v>0.66008651183495937</v>
       </c>
       <c r="T25">
-        <f>AVERAGE(K25,K65,K105)</f>
+        <f t="shared" si="4"/>
         <v>0.93419909755284447</v>
       </c>
       <c r="U25">
-        <f>AVERAGE(L25,L65,L105)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V25">
-        <f>AVERAGE(M25,M65,M105)</f>
+        <f t="shared" si="4"/>
         <v>0.4540011510677992</v>
       </c>
       <c r="W25">
-        <f>AVERAGE(N25,N65,N105)</f>
+        <f t="shared" si="4"/>
         <v>0.65141202211819682</v>
       </c>
       <c r="X25">
-        <f>AVERAGE(O25,O65,O105)</f>
+        <f t="shared" si="4"/>
         <v>0.68853342749529178</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.59798220022709592</v>
       </c>
       <c r="Z25" t="b">
@@ -7562,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>[3]Globals!B56</f>
         <v>LQ</v>
@@ -7627,35 +7500,35 @@
         <v>14</v>
       </c>
       <c r="R26">
-        <f>AVERAGE(I26,I66,I106)</f>
+        <f t="shared" si="4"/>
         <v>0.71863963664561858</v>
       </c>
       <c r="S26">
-        <f>AVERAGE(J26,J66,J106)</f>
+        <f t="shared" si="4"/>
         <v>0.68975955766623642</v>
       </c>
       <c r="T26">
-        <f>AVERAGE(K26,K66,K106)</f>
+        <f t="shared" si="4"/>
         <v>0.968106800508722</v>
       </c>
       <c r="U26">
-        <f>AVERAGE(L26,L66,L106)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V26">
-        <f>AVERAGE(M26,M66,M106)</f>
+        <f t="shared" si="4"/>
         <v>0.4955452437798315</v>
       </c>
       <c r="W26">
-        <f>AVERAGE(N26,N66,N106)</f>
+        <f t="shared" si="4"/>
         <v>0.69707996048717524</v>
       </c>
       <c r="X26">
-        <f>AVERAGE(O26,O66,O106)</f>
+        <f t="shared" si="4"/>
         <v>0.71863963664561858</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.6370882803042085</v>
       </c>
       <c r="Z26" t="b">
@@ -7663,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>[3]Globals!B57</f>
         <v>Med</v>
@@ -7728,31 +7601,31 @@
         <v>15</v>
       </c>
       <c r="R27">
-        <f>AVERAGE(I27,I67,I107)</f>
+        <f t="shared" si="4"/>
         <v>0.75964987486525148</v>
       </c>
       <c r="S27">
-        <f>AVERAGE(J27,J67,J107)</f>
+        <f t="shared" si="4"/>
         <v>0.71452531981378964</v>
       </c>
       <c r="T27">
-        <f>AVERAGE(K27,K67,K107)</f>
+        <f t="shared" si="4"/>
         <v>0.97427122299782321</v>
       </c>
       <c r="U27">
-        <f>AVERAGE(L27,L67,L107)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V27">
-        <f>AVERAGE(M27,M67,M107)</f>
+        <f t="shared" si="4"/>
         <v>0.54150745807164868</v>
       </c>
       <c r="W27">
-        <f>AVERAGE(N27,N67,N107)</f>
+        <f t="shared" si="4"/>
         <v>0.74254661648361464</v>
       </c>
       <c r="X27">
-        <f>AVERAGE(O27,O67,O107)</f>
+        <f t="shared" si="4"/>
         <v>0.75964987486525148</v>
       </c>
       <c r="Y27">
@@ -7764,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>[3]Globals!B58</f>
         <v>UQ</v>
@@ -7829,35 +7702,35 @@
         <v>16</v>
       </c>
       <c r="R28">
-        <f>AVERAGE(I28,I68,I108)</f>
+        <f t="shared" si="4"/>
         <v>0.81286111014669038</v>
       </c>
       <c r="S28">
-        <f>AVERAGE(J28,J68,J108)</f>
+        <f t="shared" si="4"/>
         <v>0.73808088642690028</v>
       </c>
       <c r="T28">
-        <f>AVERAGE(K28,K68,K108)</f>
+        <f t="shared" si="4"/>
         <v>0.98331615972584185</v>
       </c>
       <c r="U28">
-        <f>AVERAGE(L28,L68,L108)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V28">
-        <f>AVERAGE(M28,M68,M108)</f>
+        <f t="shared" si="4"/>
         <v>0.59695573556313597</v>
       </c>
       <c r="W28">
-        <f>AVERAGE(N28,N68,N108)</f>
+        <f t="shared" si="4"/>
         <v>0.78215974077777373</v>
       </c>
       <c r="X28">
-        <f>AVERAGE(O28,O68,O108)</f>
+        <f t="shared" si="4"/>
         <v>0.81286111014669038</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7306588621625334</v>
       </c>
       <c r="Z28" t="b">
@@ -7865,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>[3]Globals!B59</f>
         <v>Max</v>
@@ -7930,35 +7803,35 @@
         <v>17</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(I29,I69,I109)</f>
+        <f t="shared" si="4"/>
         <v>0.98122065727699537</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(J29,J69,J109)</f>
+        <f t="shared" si="4"/>
         <v>0.78088803890407521</v>
       </c>
       <c r="T29">
-        <f>AVERAGE(K29,K69,K109)</f>
+        <f t="shared" si="4"/>
         <v>0.99174739764939535</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(L29,L69,L109)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V29">
-        <f>AVERAGE(M29,M69,M109)</f>
+        <f t="shared" si="4"/>
         <v>0.76750979269521435</v>
       </c>
       <c r="W29">
-        <f>AVERAGE(N29,N69,N109)</f>
+        <f t="shared" si="4"/>
         <v>0.97089244720155732</v>
       </c>
       <c r="X29">
-        <f>AVERAGE(O29,O69,O109)</f>
+        <f t="shared" si="4"/>
         <v>0.98122065727699537</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.90654096572458898</v>
       </c>
       <c r="Z29" t="b">
@@ -7966,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7983,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>[4]Globals!B52</f>
         <v>0</v>
@@ -8072,7 +7945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>[4]Globals!B53</f>
         <v>Mean</v>
@@ -8137,31 +8010,31 @@
         <v>11</v>
       </c>
       <c r="R33">
-        <f>AVERAGE(I33,I73,I113)</f>
+        <f t="shared" ref="R33:X39" si="6">AVERAGE(I33,I73,I113)</f>
         <v>0.75546393912648391</v>
       </c>
       <c r="S33">
-        <f>AVERAGE(J33,J73,J113)</f>
+        <f t="shared" si="6"/>
         <v>0.70792088952541032</v>
       </c>
       <c r="T33">
-        <f>AVERAGE(K33,K73,K113)</f>
+        <f t="shared" si="6"/>
         <v>0.99922650903579502</v>
       </c>
       <c r="U33">
-        <f>AVERAGE(L33,L73,L113)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V33">
-        <f>AVERAGE(M33,M73,M113)</f>
+        <f t="shared" si="6"/>
         <v>0.53770003198754712</v>
       </c>
       <c r="W33">
-        <f>AVERAGE(N33,N73,N113)</f>
+        <f t="shared" si="6"/>
         <v>0.75493267154218768</v>
       </c>
       <c r="X33">
-        <f>AVERAGE(O33,O73,O113)</f>
+        <f t="shared" si="6"/>
         <v>0.75546393912648391</v>
       </c>
       <c r="Y33">
@@ -8173,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>[4]Globals!B54</f>
         <v>Stdev</v>
@@ -8238,35 +8111,35 @@
         <v>12</v>
       </c>
       <c r="R34">
-        <f>AVERAGE(I34,I74,I114)</f>
+        <f t="shared" si="6"/>
         <v>9.3477987030618867E-2</v>
       </c>
       <c r="S34">
-        <f>AVERAGE(J34,J74,J114)</f>
+        <f t="shared" si="6"/>
         <v>4.5222990260969299E-2</v>
       </c>
       <c r="T34">
-        <f>AVERAGE(K34,K74,K114)</f>
+        <f t="shared" si="6"/>
         <v>3.8478083683293088E-3</v>
       </c>
       <c r="U34">
-        <f>AVERAGE(L34,L74,L114)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>AVERAGE(M34,M74,M114)</f>
+        <f t="shared" si="6"/>
         <v>9.7891378356362677E-2</v>
       </c>
       <c r="W34">
-        <f>AVERAGE(N34,N74,N114)</f>
+        <f t="shared" si="6"/>
         <v>9.4232344195157511E-2</v>
       </c>
       <c r="X34">
-        <f>AVERAGE(O34,O74,O114)</f>
+        <f t="shared" si="6"/>
         <v>9.3477987030618867E-2</v>
       </c>
       <c r="Y34">
-        <f t="shared" ref="Y34:Y39" si="3">AVERAGE(V34:X34)</f>
+        <f t="shared" ref="Y34:Y39" si="7">AVERAGE(V34:X34)</f>
         <v>9.5200569860713014E-2</v>
       </c>
       <c r="Z34" t="b">
@@ -8274,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>[4]Globals!B55</f>
         <v>Min</v>
@@ -8339,35 +8212,35 @@
         <v>13</v>
       </c>
       <c r="R35">
-        <f>AVERAGE(I35,I75,I115)</f>
+        <f t="shared" si="6"/>
         <v>0.63313191613278974</v>
       </c>
       <c r="S35">
-        <f>AVERAGE(J35,J75,J115)</f>
+        <f t="shared" si="6"/>
         <v>0.62475845816434072</v>
       </c>
       <c r="T35">
-        <f>AVERAGE(K35,K75,K115)</f>
+        <f t="shared" si="6"/>
         <v>0.97872237712702193</v>
       </c>
       <c r="U35">
-        <f>AVERAGE(L35,L75,L115)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V35">
-        <f>AVERAGE(M35,M75,M115)</f>
+        <f t="shared" si="6"/>
         <v>0.39931697533126048</v>
       </c>
       <c r="W35">
-        <f>AVERAGE(N35,N75,N115)</f>
+        <f t="shared" si="6"/>
         <v>0.62535401413426039</v>
       </c>
       <c r="X35">
-        <f>AVERAGE(O35,O75,O115)</f>
+        <f t="shared" si="6"/>
         <v>0.63313191613278974</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.55260096853277019</v>
       </c>
       <c r="Z35" t="b">
@@ -8375,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>[4]Globals!B56</f>
         <v>LQ</v>
@@ -8440,35 +8313,35 @@
         <v>14</v>
       </c>
       <c r="R36">
-        <f>AVERAGE(I36,I76,I116)</f>
+        <f t="shared" si="6"/>
         <v>0.66850062165453006</v>
       </c>
       <c r="S36">
-        <f>AVERAGE(J36,J76,J116)</f>
+        <f t="shared" si="6"/>
         <v>0.65257579397486276</v>
       </c>
       <c r="T36">
-        <f>AVERAGE(K36,K76,K116)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U36">
-        <f>AVERAGE(L36,L76,L116)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V36">
-        <f>AVERAGE(M36,M76,M116)</f>
+        <f t="shared" si="6"/>
         <v>0.43508540373491705</v>
       </c>
       <c r="W36">
-        <f>AVERAGE(N36,N76,N116)</f>
+        <f t="shared" si="6"/>
         <v>0.66850062165453006</v>
       </c>
       <c r="X36">
-        <f>AVERAGE(O36,O76,O116)</f>
+        <f t="shared" si="6"/>
         <v>0.66850062165453006</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.59069554901465915</v>
       </c>
       <c r="Z36" t="b">
@@ -8476,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>[4]Globals!B57</f>
         <v>Med</v>
@@ -8541,35 +8414,35 @@
         <v>15</v>
       </c>
       <c r="R37">
-        <f>AVERAGE(I37,I77,I117)</f>
+        <f t="shared" si="6"/>
         <v>0.74910726454954346</v>
       </c>
       <c r="S37">
-        <f>AVERAGE(J37,J77,J117)</f>
+        <f t="shared" si="6"/>
         <v>0.72394688305304966</v>
       </c>
       <c r="T37">
-        <f>AVERAGE(K37,K77,K117)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U37">
-        <f>AVERAGE(L37,L77,L117)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V37">
-        <f>AVERAGE(M37,M77,M117)</f>
+        <f t="shared" si="6"/>
         <v>0.53816787416661127</v>
       </c>
       <c r="W37">
-        <f>AVERAGE(N37,N77,N117)</f>
+        <f t="shared" si="6"/>
         <v>0.74910726454954346</v>
       </c>
       <c r="X37">
-        <f>AVERAGE(O37,O77,O117)</f>
+        <f t="shared" si="6"/>
         <v>0.74910726454954346</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.6787941344218994</v>
       </c>
       <c r="Z37" t="b">
@@ -8577,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>[4]Globals!B58</f>
         <v>UQ</v>
@@ -8642,35 +8515,35 @@
         <v>16</v>
       </c>
       <c r="R38">
-        <f>AVERAGE(I38,I78,I118)</f>
+        <f t="shared" si="6"/>
         <v>0.81106638542812737</v>
       </c>
       <c r="S38">
-        <f>AVERAGE(J38,J78,J118)</f>
+        <f t="shared" si="6"/>
         <v>0.7399739836029825</v>
       </c>
       <c r="T38">
-        <f>AVERAGE(K38,K78,K118)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U38">
-        <f>AVERAGE(L38,L78,L118)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V38">
-        <f>AVERAGE(M38,M78,M118)</f>
+        <f t="shared" si="6"/>
         <v>0.5997256099856324</v>
       </c>
       <c r="W38">
-        <f>AVERAGE(N38,N78,N118)</f>
+        <f t="shared" si="6"/>
         <v>0.81106638542812737</v>
       </c>
       <c r="X38">
-        <f>AVERAGE(O38,O78,O118)</f>
+        <f t="shared" si="6"/>
         <v>0.81106638542812737</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.74061946028062897</v>
       </c>
       <c r="Z38" t="b">
@@ -8678,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>[4]Globals!B59</f>
         <v>Max</v>
@@ -8743,35 +8616,35 @@
         <v>17</v>
       </c>
       <c r="R39">
-        <f>AVERAGE(I39,I79,I119)</f>
+        <f t="shared" si="6"/>
         <v>0.94156868180987219</v>
       </c>
       <c r="S39">
-        <f>AVERAGE(J39,J79,J119)</f>
+        <f t="shared" si="6"/>
         <v>0.76854527558013885</v>
       </c>
       <c r="T39">
-        <f>AVERAGE(K39,K79,K119)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U39">
-        <f>AVERAGE(L39,L79,L119)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V39">
-        <f>AVERAGE(M39,M79,M119)</f>
+        <f t="shared" si="6"/>
         <v>0.71689947941935328</v>
       </c>
       <c r="W39">
-        <f>AVERAGE(N39,N79,N119)</f>
+        <f t="shared" si="6"/>
         <v>0.94156868180987219</v>
       </c>
       <c r="X39">
-        <f>AVERAGE(O39,O79,O119)</f>
+        <f t="shared" si="6"/>
         <v>0.94156868180987219</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86667894767969933</v>
       </c>
       <c r="Z39" t="b">
@@ -8779,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8790,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>[5]Globals!B52</f>
         <v>0</v>
@@ -8852,7 +8725,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>[5]Globals!B53</f>
         <v>Mean</v>
@@ -8914,7 +8787,7 @@
         <v>0.81246265741239165</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>[5]Globals!B54</f>
         <v>Stdev</v>
@@ -8976,7 +8849,7 @@
         <v>8.6642406566445923E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>[5]Globals!B55</f>
         <v>Min</v>
@@ -9038,7 +8911,7 @@
         <v>0.68831168831168832</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>[5]Globals!B56</f>
         <v>LQ</v>
@@ -9100,7 +8973,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>[5]Globals!B57</f>
         <v>Med</v>
@@ -9162,7 +9035,7 @@
         <v>0.77958035907419421</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>[5]Globals!B58</f>
         <v>UQ</v>
@@ -9224,7 +9097,7 @@
         <v>0.89830508474576276</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>[5]Globals!B59</f>
         <v>Max</v>
@@ -9286,7 +9159,7 @@
         <v>0.96363636363636362</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -9297,7 +9170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>[6]Globals!B52</f>
         <v>0</v>
@@ -9359,7 +9232,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>[6]Globals!B53</f>
         <v>Mean</v>
@@ -9421,7 +9294,7 @@
         <v>0.80991156501196626</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>[6]Globals!B54</f>
         <v>Stdev</v>
@@ -9483,7 +9356,7 @@
         <v>9.8573841322420544E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>[6]Globals!B55</f>
         <v>Min</v>
@@ -9545,7 +9418,7 @@
         <v>0.67088607594936711</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>[6]Globals!B56</f>
         <v>LQ</v>
@@ -9607,7 +9480,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>[6]Globals!B57</f>
         <v>Med</v>
@@ -9669,7 +9542,7 @@
         <v>0.80303030303030298</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>[6]Globals!B58</f>
         <v>UQ</v>
@@ -9731,7 +9604,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>[6]Globals!B59</f>
         <v>Max</v>
@@ -9793,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -9804,7 +9677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>[7]Globals!B52</f>
         <v>0</v>
@@ -9866,7 +9739,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>[7]Globals!B53</f>
         <v>Mean</v>
@@ -9928,7 +9801,7 @@
         <v>0.76479077199277257</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>[7]Globals!B54</f>
         <v>Stdev</v>
@@ -9990,7 +9863,7 @@
         <v>8.4318306335268198E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>[7]Globals!B55</f>
         <v>Min</v>
@@ -10052,7 +9925,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>[7]Globals!B56</f>
         <v>LQ</v>
@@ -10114,7 +9987,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>[7]Globals!B57</f>
         <v>Med</v>
@@ -10176,7 +10049,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>[7]Globals!B58</f>
         <v>UQ</v>
@@ -10238,7 +10111,7 @@
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>[7]Globals!B59</f>
         <v>Max</v>
@@ -10300,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -10311,7 +10184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>[8]Globals!B52</f>
         <v>0</v>
@@ -10373,7 +10246,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>[8]Globals!B53</f>
         <v>Mean</v>
@@ -10435,7 +10308,7 @@
         <v>0.77452102910279952</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>[8]Globals!B54</f>
         <v>Stdev</v>
@@ -10497,7 +10370,7 @@
         <v>9.0813546332030134E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>[8]Globals!B55</f>
         <v>Min</v>
@@ -10559,7 +10432,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>[8]Globals!B56</f>
         <v>LQ</v>
@@ -10621,7 +10494,7 @@
         <v>0.67948717948717952</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>[8]Globals!B57</f>
         <v>Med</v>
@@ -10683,7 +10556,7 @@
         <v>0.76811594202898548</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>[8]Globals!B58</f>
         <v>UQ</v>
@@ -10745,7 +10618,7 @@
         <v>0.87757496740547591</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>[8]Globals!B59</f>
         <v>Max</v>
@@ -10807,7 +10680,7 @@
         <v>0.92982456140350878</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -10818,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>[9]Globals!B52</f>
         <v>0</v>
@@ -10880,7 +10753,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>[9]Globals!B53</f>
         <v>Mean</v>
@@ -10942,7 +10815,7 @@
         <v>0.82289568297956972</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>[9]Globals!B54</f>
         <v>Stdev</v>
@@ -11004,7 +10877,7 @@
         <v>0.10493093605563887</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>[9]Globals!B55</f>
         <v>Min</v>
@@ -11066,7 +10939,7 @@
         <v>0.53208978821536002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>[9]Globals!B56</f>
         <v>LQ</v>
@@ -11128,7 +11001,7 @@
         <v>0.77235364875701684</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>[9]Globals!B57</f>
         <v>Med</v>
@@ -11190,7 +11063,7 @@
         <v>0.81719470474490552</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>[9]Globals!B58</f>
         <v>UQ</v>
@@ -11252,7 +11125,7 @@
         <v>0.9178082191780822</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>[9]Globals!B59</f>
         <v>Max</v>
@@ -11314,7 +11187,7 @@
         <v>0.95714285714285718</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -11325,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>[10]Globals!B52</f>
         <v>0</v>
@@ -11387,7 +11260,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>[10]Globals!B53</f>
         <v>Mean</v>
@@ -11449,7 +11322,7 @@
         <v>0.80532483496000429</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>[10]Globals!B54</f>
         <v>Stdev</v>
@@ -11511,7 +11384,7 @@
         <v>8.2594686604439527E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>[10]Globals!B55</f>
         <v>Min</v>
@@ -11573,7 +11446,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>[10]Globals!B56</f>
         <v>LQ</v>
@@ -11635,7 +11508,7 @@
         <v>0.73830891330891335</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>[10]Globals!B57</f>
         <v>Med</v>
@@ -11697,7 +11570,7 @@
         <v>0.78823529411764703</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>[10]Globals!B58</f>
         <v>UQ</v>
@@ -11759,7 +11632,7 @@
         <v>0.84545094936708853</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>[10]Globals!B59</f>
         <v>Max</v>
@@ -11821,7 +11694,7 @@
         <v>0.97101449275362317</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -11832,1015 +11705,1015 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f>[11]Globals!B52</f>
+        <v>0</v>
+      </c>
+      <c r="B102" t="str">
+        <f>[11]Globals!C52</f>
+        <v>EX_T</v>
+      </c>
+      <c r="C102" t="str">
+        <f>[11]Globals!D52</f>
+        <v>HA_T</v>
+      </c>
+      <c r="D102" t="str">
+        <f>[11]Globals!E52</f>
+        <v>AW_T</v>
+      </c>
+      <c r="E102" t="str">
+        <f>[11]Globals!F52</f>
+        <v>AME_T</v>
+      </c>
+      <c r="F102" t="str">
+        <f>[11]Globals!G52</f>
+        <v>AME_T_PA</v>
+      </c>
+      <c r="G102" t="str">
+        <f>[11]Globals!H52</f>
+        <v>BL_LE</v>
+      </c>
+      <c r="H102" t="str">
+        <f>[11]Globals!I52</f>
+        <v>BL_AC</v>
+      </c>
+      <c r="I102" t="str">
+        <f>[11]Globals!J52</f>
+        <v>Q</v>
+      </c>
+      <c r="J102" t="str">
+        <f>[11]Globals!K52</f>
+        <v>AT</v>
+      </c>
+      <c r="K102" t="str">
+        <f>[11]Globals!L52</f>
+        <v>ET</v>
+      </c>
+      <c r="L102" t="str">
+        <f>[11]Globals!M52</f>
+        <v>WT</v>
+      </c>
+      <c r="M102" t="str">
+        <f>[11]Globals!N52</f>
+        <v>AG</v>
+      </c>
+      <c r="N102" t="str">
+        <f>[11]Globals!O52</f>
+        <v>EG</v>
+      </c>
+      <c r="O102" t="str">
+        <f>[11]Globals!P52</f>
+        <v>WT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>[11]Globals!B53</f>
+        <v>Mean</v>
+      </c>
+      <c r="B103">
+        <f>[11]Globals!C53</f>
+        <v>5.7868539920000606</v>
+      </c>
+      <c r="C103">
+        <f>[11]Globals!D53</f>
+        <v>14.841782427999966</v>
+      </c>
+      <c r="D103">
+        <f>[11]Globals!E53</f>
+        <v>1.8973040199999966</v>
+      </c>
+      <c r="E103">
+        <f>[11]Globals!F53</f>
+        <v>1.1739472709999887</v>
+      </c>
+      <c r="F103">
+        <f>[11]Globals!G53</f>
+        <v>0.17852125785874562</v>
+      </c>
+      <c r="G103">
+        <f>[11]Globals!H53</f>
+        <v>81.2</v>
+      </c>
+      <c r="H103">
+        <f>[11]Globals!I53</f>
+        <v>81.2</v>
+      </c>
+      <c r="I103">
+        <f>[11]Globals!J53</f>
+        <v>0.83149302888349408</v>
+      </c>
+      <c r="J103">
+        <f>[11]Globals!K53</f>
+        <v>0.68394225252234397</v>
+      </c>
+      <c r="K103">
+        <f>[11]Globals!L53</f>
+        <v>0.92543705772781626</v>
+      </c>
+      <c r="L103">
+        <f>[11]Globals!M53</f>
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <f>[11]Globals!N53</f>
+        <v>0.57010041520650978</v>
+      </c>
+      <c r="N103">
+        <f>[11]Globals!O53</f>
+        <v>0.76922514065408054</v>
+      </c>
+      <c r="O103">
+        <f>[11]Globals!P53</f>
+        <v>0.83149302888349408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>[11]Globals!B54</f>
+        <v>Stdev</v>
+      </c>
+      <c r="B104">
+        <f>[11]Globals!C54</f>
+        <v>0.37294178576947939</v>
+      </c>
+      <c r="C104">
+        <f>[11]Globals!D54</f>
+        <v>2.0113708716324719</v>
+      </c>
+      <c r="D104">
+        <f>[11]Globals!E54</f>
+        <v>0.25092117913260287</v>
+      </c>
+      <c r="E104">
+        <f>[11]Globals!F54</f>
+        <v>0.25788950732942328</v>
+      </c>
+      <c r="F104">
+        <f>[11]Globals!G54</f>
+        <v>7.1239719368294138E-2</v>
+      </c>
+      <c r="G104">
+        <f>[11]Globals!H54</f>
+        <v>7.2365286525222521</v>
+      </c>
+      <c r="H104">
+        <f>[11]Globals!I54</f>
+        <v>7.2365286525222521</v>
+      </c>
+      <c r="I104">
+        <f>[11]Globals!J54</f>
+        <v>7.3229435634959053E-2</v>
+      </c>
+      <c r="J104">
+        <f>[11]Globals!K54</f>
+        <v>2.2015412580803969E-2</v>
+      </c>
+      <c r="K104">
+        <f>[11]Globals!L54</f>
+        <v>2.8124858398904204E-2</v>
+      </c>
+      <c r="L104">
+        <f>[11]Globals!M54</f>
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f>[11]Globals!N54</f>
+        <v>6.6140375582517147E-2</v>
+      </c>
+      <c r="N104">
+        <f>[11]Globals!O54</f>
+        <v>6.8751035085393125E-2</v>
+      </c>
+      <c r="O104">
+        <f>[11]Globals!P54</f>
+        <v>7.3229435634959053E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>[11]Globals!B55</f>
+        <v>Min</v>
+      </c>
+      <c r="B105">
+        <f>[11]Globals!C55</f>
+        <v>5.2039083000000801</v>
+      </c>
+      <c r="C105">
+        <f>[11]Globals!D55</f>
+        <v>12.63462900000013</v>
+      </c>
+      <c r="D105">
+        <f>[11]Globals!E55</f>
+        <v>1.6202284500000199</v>
+      </c>
+      <c r="E105">
+        <f>[11]Globals!F55</f>
+        <v>0.92176414999994449</v>
+      </c>
+      <c r="F105">
+        <f>[11]Globals!G55</f>
+        <v>0.1001917158533929</v>
+      </c>
+      <c r="G105">
+        <f>[11]Globals!H55</f>
+        <v>71</v>
+      </c>
+      <c r="H105">
+        <f>[11]Globals!I55</f>
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <f>[11]Globals!J55</f>
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="J105">
+        <f>[11]Globals!K55</f>
+        <v>0.61654763136719481</v>
+      </c>
+      <c r="K105">
+        <f>[11]Globals!L55</f>
+        <v>0.86599381270602183</v>
+      </c>
+      <c r="L105">
+        <f>[11]Globals!M55</f>
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <f>[11]Globals!N55</f>
+        <v>0.43029886772502135</v>
+      </c>
+      <c r="N105">
+        <f>[11]Globals!O55</f>
+        <v>0.63135265803560658</v>
+      </c>
+      <c r="O105">
+        <f>[11]Globals!P55</f>
+        <v>0.69791666666666663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>[11]Globals!B56</f>
+        <v>LQ</v>
+      </c>
+      <c r="B106">
+        <f>[11]Globals!C56</f>
+        <v>5.4552684250002415</v>
+      </c>
+      <c r="C106">
+        <f>[11]Globals!D56</f>
+        <v>13.546909799999471</v>
+      </c>
+      <c r="D106">
+        <f>[11]Globals!E56</f>
+        <v>1.7376392656249848</v>
+      </c>
+      <c r="E106">
+        <f>[11]Globals!F56</f>
+        <v>0.99771625937502673</v>
+      </c>
+      <c r="F106">
+        <f>[11]Globals!G56</f>
+        <v>0.14168740853043738</v>
+      </c>
+      <c r="G106">
+        <f>[11]Globals!H56</f>
+        <v>73.5</v>
+      </c>
+      <c r="H106">
+        <f>[11]Globals!I56</f>
+        <v>73.5</v>
+      </c>
+      <c r="I106">
+        <f>[11]Globals!J56</f>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J106">
+        <f>[11]Globals!K56</f>
+        <v>0.67967905605964907</v>
+      </c>
+      <c r="K106">
+        <f>[11]Globals!L56</f>
+        <v>0.904320401526166</v>
+      </c>
+      <c r="L106">
+        <f>[11]Globals!M56</f>
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <f>[11]Globals!N56</f>
+        <v>0.53584222175049956</v>
+      </c>
+      <c r="N106">
+        <f>[11]Globals!O56</f>
+        <v>0.72355626564231701</v>
+      </c>
+      <c r="O106">
+        <f>[11]Globals!P56</f>
+        <v>0.78823529411764703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>[11]Globals!B57</f>
+        <v>Med</v>
+      </c>
+      <c r="B107">
+        <f>[11]Globals!C57</f>
+        <v>5.7834566500000335</v>
+      </c>
+      <c r="C107">
+        <f>[11]Globals!D57</f>
+        <v>14.343265450000136</v>
+      </c>
+      <c r="D107">
+        <f>[11]Globals!E57</f>
+        <v>1.8406297249999655</v>
+      </c>
+      <c r="E107">
+        <f>[11]Globals!F57</f>
+        <v>1.1008414062499625</v>
+      </c>
+      <c r="F107">
+        <f>[11]Globals!G57</f>
+        <v>0.15627187664042716</v>
+      </c>
+      <c r="G107">
+        <f>[11]Globals!H57</f>
+        <v>82</v>
+      </c>
+      <c r="H107">
+        <f>[11]Globals!I57</f>
+        <v>82</v>
+      </c>
+      <c r="I107">
+        <f>[11]Globals!J57</f>
+        <v>0.81707317073170727</v>
+      </c>
+      <c r="J107">
+        <f>[11]Globals!K57</f>
+        <v>0.68830498725723377</v>
+      </c>
+      <c r="K107">
+        <f>[11]Globals!L57</f>
+        <v>0.92281366899346962</v>
+      </c>
+      <c r="L107">
+        <f>[11]Globals!M57</f>
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <f>[11]Globals!N57</f>
+        <v>0.56391624687458242</v>
+      </c>
+      <c r="N107">
+        <f>[11]Globals!O57</f>
+        <v>0.76576339558679618</v>
+      </c>
+      <c r="O107">
+        <f>[11]Globals!P57</f>
+        <v>0.81707317073170727</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>[11]Globals!B58</f>
+        <v>UQ</v>
+      </c>
+      <c r="B108">
+        <f>[11]Globals!C58</f>
+        <v>6.0486284499998249</v>
+      </c>
+      <c r="C108">
+        <f>[11]Globals!D58</f>
+        <v>15.033974750000212</v>
+      </c>
+      <c r="D108">
+        <f>[11]Globals!E58</f>
+        <v>1.9200839062500312</v>
+      </c>
+      <c r="E108">
+        <f>[11]Globals!F58</f>
+        <v>1.2271982499999901</v>
+      </c>
+      <c r="F108">
+        <f>[11]Globals!G58</f>
+        <v>0.18498480049975555</v>
+      </c>
+      <c r="G108">
+        <f>[11]Globals!H58</f>
+        <v>85</v>
+      </c>
+      <c r="H108">
+        <f>[11]Globals!I58</f>
+        <v>85</v>
+      </c>
+      <c r="I108">
+        <f>[11]Globals!J58</f>
+        <v>0.911689497716895</v>
+      </c>
+      <c r="J108">
+        <f>[11]Globals!K58</f>
+        <v>0.69899213514520575</v>
+      </c>
+      <c r="K108">
+        <f>[11]Globals!L58</f>
+        <v>0.94994847917752567</v>
+      </c>
+      <c r="L108">
+        <f>[11]Globals!M58</f>
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <f>[11]Globals!N58</f>
+        <v>0.63569938669792758</v>
+      </c>
+      <c r="N108">
+        <f>[11]Globals!O58</f>
+        <v>0.8195853896101446</v>
+      </c>
+      <c r="O108">
+        <f>[11]Globals!P58</f>
+        <v>0.911689497716895</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>[11]Globals!B59</f>
+        <v>Max</v>
+      </c>
+      <c r="B109">
+        <f>[11]Globals!C59</f>
+        <v>6.730402399999889</v>
+      </c>
+      <c r="C109">
+        <f>[11]Globals!D59</f>
+        <v>21.71095390000005</v>
+      </c>
+      <c r="D109">
+        <f>[11]Globals!E59</f>
+        <v>2.7548168500000401</v>
+      </c>
+      <c r="E109">
+        <f>[11]Globals!F59</f>
+        <v>2.0697697999999889</v>
+      </c>
+      <c r="F109">
+        <f>[11]Globals!G59</f>
+        <v>0.41617572177171541</v>
+      </c>
+      <c r="G109">
+        <f>[11]Globals!H59</f>
+        <v>96</v>
+      </c>
+      <c r="H109">
+        <f>[11]Globals!I59</f>
+        <v>96</v>
+      </c>
+      <c r="I109">
+        <f>[11]Globals!J59</f>
+        <v>0.94366197183098588</v>
+      </c>
+      <c r="J109">
+        <f>[11]Globals!K59</f>
+        <v>0.71239161062183709</v>
+      </c>
+      <c r="K109">
+        <f>[11]Globals!L59</f>
+        <v>0.97524219294818604</v>
+      </c>
+      <c r="L109">
+        <f>[11]Globals!M59</f>
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <f>[11]Globals!N59</f>
+        <v>0.67225687199525475</v>
+      </c>
+      <c r="N109">
+        <f>[11]Globals!O59</f>
+        <v>0.91267734160467184</v>
+      </c>
+      <c r="O109">
+        <f>[11]Globals!P59</f>
+        <v>0.94366197183098588</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112">
         <f>[12]Globals!B52</f>
         <v>0</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B112" t="str">
         <f>[12]Globals!C52</f>
         <v>EX_T</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C112" t="str">
         <f>[12]Globals!D52</f>
         <v>HA_T</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D112" t="str">
         <f>[12]Globals!E52</f>
         <v>AW_T</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E112" t="str">
         <f>[12]Globals!F52</f>
         <v>AME_T</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F112" t="str">
         <f>[12]Globals!G52</f>
         <v>AME_T_PA</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G112" t="str">
         <f>[12]Globals!H52</f>
         <v>BL_LE</v>
       </c>
-      <c r="H102" t="str">
+      <c r="H112" t="str">
         <f>[12]Globals!I52</f>
         <v>BL_AC</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I112" t="str">
         <f>[12]Globals!J52</f>
         <v>Q</v>
       </c>
-      <c r="J102" t="str">
+      <c r="J112" t="str">
         <f>[12]Globals!K52</f>
         <v>AT</v>
       </c>
-      <c r="K102" t="str">
+      <c r="K112" t="str">
         <f>[12]Globals!L52</f>
         <v>ET</v>
       </c>
-      <c r="L102" t="str">
+      <c r="L112" t="str">
         <f>[12]Globals!M52</f>
         <v>WT</v>
       </c>
-      <c r="M102" t="str">
+      <c r="M112" t="str">
         <f>[12]Globals!N52</f>
         <v>AG</v>
       </c>
-      <c r="N102" t="str">
+      <c r="N112" t="str">
         <f>[12]Globals!O52</f>
         <v>EG</v>
       </c>
-      <c r="O102" t="str">
+      <c r="O112" t="str">
         <f>[12]Globals!P52</f>
         <v>WT</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" t="str">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <f>[12]Globals!B53</f>
         <v>Mean</v>
       </c>
-      <c r="B103">
+      <c r="B113">
         <f>[12]Globals!C53</f>
-        <v>5.7868539920000606</v>
-      </c>
-      <c r="C103">
+        <v>4.441295888000039</v>
+      </c>
+      <c r="C113">
         <f>[12]Globals!D53</f>
-        <v>14.841782427999966</v>
-      </c>
-      <c r="D103">
+        <v>16.689436578000038</v>
+      </c>
+      <c r="D113">
         <f>[12]Globals!E53</f>
-        <v>1.8973040199999966</v>
-      </c>
-      <c r="E103">
+        <v>1.0820637365000016</v>
+      </c>
+      <c r="E113">
         <f>[12]Globals!F53</f>
-        <v>1.1739472709999887</v>
-      </c>
-      <c r="F103">
+        <v>0.80448274349999915</v>
+      </c>
+      <c r="F113">
         <f>[12]Globals!G53</f>
-        <v>0.17852125785874562</v>
-      </c>
-      <c r="G103">
+        <v>0.25712896818432773</v>
+      </c>
+      <c r="G113">
         <f>[12]Globals!H53</f>
-        <v>81.2</v>
-      </c>
-      <c r="H103">
+        <v>86.98</v>
+      </c>
+      <c r="H113">
         <f>[12]Globals!I53</f>
-        <v>81.2</v>
-      </c>
-      <c r="I103">
+        <v>86.98</v>
+      </c>
+      <c r="I113">
         <f>[12]Globals!J53</f>
-        <v>0.83149302888349408</v>
-      </c>
-      <c r="J103">
+        <v>0.77767796129395361</v>
+      </c>
+      <c r="J113">
         <f>[12]Globals!K53</f>
-        <v>0.68394225252234397</v>
-      </c>
-      <c r="K103">
+        <v>0.66614349935780548</v>
+      </c>
+      <c r="K113">
         <f>[12]Globals!L53</f>
-        <v>0.92543705772781626</v>
-      </c>
-      <c r="L103">
+        <v>0.99767952710738528</v>
+      </c>
+      <c r="L113">
         <f>[12]Globals!M53</f>
         <v>1</v>
       </c>
-      <c r="M103">
+      <c r="M113">
         <f>[12]Globals!N53</f>
-        <v>0.57010041520650978</v>
-      </c>
-      <c r="N103">
+        <v>0.52036907397139931</v>
+      </c>
+      <c r="N113">
         <f>[12]Globals!O53</f>
-        <v>0.76922514065408054</v>
-      </c>
-      <c r="O103">
+        <v>0.77608415854106483</v>
+      </c>
+      <c r="O113">
         <f>[12]Globals!P53</f>
-        <v>0.83149302888349408</v>
+        <v>0.77767796129395361</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104" t="str">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <f>[12]Globals!B54</f>
         <v>Stdev</v>
       </c>
-      <c r="B104">
+      <c r="B114">
         <f>[12]Globals!C54</f>
-        <v>0.37294178576947939</v>
-      </c>
-      <c r="C104">
+        <v>0.29876857760885001</v>
+      </c>
+      <c r="C114">
         <f>[12]Globals!D54</f>
-        <v>2.0113708716324719</v>
-      </c>
-      <c r="D104">
+        <v>3.7988581767564398</v>
+      </c>
+      <c r="D114">
         <f>[12]Globals!E54</f>
-        <v>0.25092117913260287</v>
-      </c>
-      <c r="E104">
+        <v>0.23927966918500626</v>
+      </c>
+      <c r="E114">
         <f>[12]Globals!F54</f>
-        <v>0.25788950732942328</v>
-      </c>
-      <c r="F104">
+        <v>0.23505447685749969</v>
+      </c>
+      <c r="F114">
         <f>[12]Globals!G54</f>
-        <v>7.1239719368294138E-2</v>
-      </c>
-      <c r="G104">
+        <v>0.12927212702536459</v>
+      </c>
+      <c r="G114">
         <f>[12]Globals!H54</f>
-        <v>7.2365286525222521</v>
-      </c>
-      <c r="H104">
+        <v>8.447895523472706</v>
+      </c>
+      <c r="H114">
         <f>[12]Globals!I54</f>
-        <v>7.2365286525222521</v>
-      </c>
-      <c r="I104">
+        <v>8.447895523472706</v>
+      </c>
+      <c r="I114">
         <f>[12]Globals!J54</f>
-        <v>7.3229435634959053E-2</v>
-      </c>
-      <c r="J104">
+        <v>7.8006721312238403E-2</v>
+      </c>
+      <c r="J114">
         <f>[12]Globals!K54</f>
-        <v>2.2015412580803969E-2</v>
-      </c>
-      <c r="K104">
+        <v>3.60761928357256E-2</v>
+      </c>
+      <c r="K114">
         <f>[12]Globals!L54</f>
-        <v>2.8124858398904204E-2</v>
-      </c>
-      <c r="L104">
+        <v>1.1543425104987926E-2</v>
+      </c>
+      <c r="L114">
         <f>[12]Globals!M54</f>
         <v>0</v>
       </c>
-      <c r="M104">
+      <c r="M114">
         <f>[12]Globals!N54</f>
-        <v>6.6140375582517147E-2</v>
-      </c>
-      <c r="N104">
+        <v>7.6779163473359544E-2</v>
+      </c>
+      <c r="N114">
         <f>[12]Globals!O54</f>
-        <v>6.8751035085393125E-2</v>
-      </c>
-      <c r="O104">
+        <v>8.0269792805854306E-2</v>
+      </c>
+      <c r="O114">
         <f>[12]Globals!P54</f>
-        <v>7.3229435634959053E-2</v>
+        <v>7.8006721312238403E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105" t="str">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <f>[12]Globals!B55</f>
         <v>Min</v>
       </c>
-      <c r="B105">
+      <c r="B115">
         <f>[12]Globals!C55</f>
-        <v>5.2039083000000801</v>
-      </c>
-      <c r="C105">
+        <v>4.0213775999998234</v>
+      </c>
+      <c r="C115">
         <f>[12]Globals!D55</f>
-        <v>12.63462900000013</v>
-      </c>
-      <c r="D105">
+        <v>12.529409499999931</v>
+      </c>
+      <c r="D115">
         <f>[12]Globals!E55</f>
-        <v>1.6202284500000199</v>
-      </c>
-      <c r="E105">
+        <v>0.82059256874999775</v>
+      </c>
+      <c r="E115">
         <f>[12]Globals!F55</f>
-        <v>0.92176414999994449</v>
-      </c>
-      <c r="F105">
+        <v>0.54355457500000881</v>
+      </c>
+      <c r="F115">
         <f>[12]Globals!G55</f>
-        <v>0.1001917158533929</v>
-      </c>
-      <c r="G105">
+        <v>0.1498526533779676</v>
+      </c>
+      <c r="G115">
         <f>[12]Globals!H55</f>
         <v>71</v>
       </c>
-      <c r="H105">
+      <c r="H115">
         <f>[12]Globals!I55</f>
         <v>71</v>
       </c>
-      <c r="I105">
+      <c r="I115">
         <f>[12]Globals!J55</f>
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="J105">
+        <v>0.6633663366336634</v>
+      </c>
+      <c r="J115">
         <f>[12]Globals!K55</f>
-        <v>0.61654763136719481</v>
-      </c>
-      <c r="K105">
+        <v>0.5868944419252039</v>
+      </c>
+      <c r="K115">
         <f>[12]Globals!L55</f>
-        <v>0.86599381270602183</v>
-      </c>
-      <c r="L105">
+        <v>0.93616713138106566</v>
+      </c>
+      <c r="L115">
         <f>[12]Globals!M55</f>
         <v>1</v>
       </c>
-      <c r="M105">
+      <c r="M115">
         <f>[12]Globals!N55</f>
-        <v>0.43029886772502135</v>
-      </c>
-      <c r="N105">
+        <v>0.40124415927539447</v>
+      </c>
+      <c r="N115">
         <f>[12]Globals!O55</f>
-        <v>0.63135265803560658</v>
-      </c>
-      <c r="O105">
+        <v>0.64003263063807547</v>
+      </c>
+      <c r="O115">
         <f>[12]Globals!P55</f>
-        <v>0.69791666666666663</v>
+        <v>0.6633663366336634</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A106" t="str">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f>[12]Globals!B56</f>
         <v>LQ</v>
       </c>
-      <c r="B106">
+      <c r="B116">
         <f>[12]Globals!C56</f>
-        <v>5.4552684250002415</v>
-      </c>
-      <c r="C106">
+        <v>4.1981180249995731</v>
+      </c>
+      <c r="C116">
         <f>[12]Globals!D56</f>
-        <v>13.546909799999471</v>
-      </c>
-      <c r="D106">
+        <v>14.242425150001026</v>
+      </c>
+      <c r="D116">
         <f>[12]Globals!E56</f>
-        <v>1.7376392656249848</v>
-      </c>
-      <c r="E106">
+        <v>0.92796714531257685</v>
+      </c>
+      <c r="E116">
         <f>[12]Globals!F56</f>
-        <v>0.99771625937502673</v>
-      </c>
-      <c r="F106">
+        <v>0.65244255625000802</v>
+      </c>
+      <c r="F116">
         <f>[12]Globals!G56</f>
-        <v>0.14168740853043738</v>
-      </c>
-      <c r="G106">
+        <v>0.17888818776599452</v>
+      </c>
+      <c r="G116">
         <f>[12]Globals!H56</f>
-        <v>73.5</v>
-      </c>
-      <c r="H106">
+        <v>81.75</v>
+      </c>
+      <c r="H116">
         <f>[12]Globals!I56</f>
-        <v>73.5</v>
-      </c>
-      <c r="I106">
+        <v>81.75</v>
+      </c>
+      <c r="I116">
         <f>[12]Globals!J56</f>
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="J106">
+        <v>0.71663968547641077</v>
+      </c>
+      <c r="J116">
         <f>[12]Globals!K56</f>
-        <v>0.67967905605964907</v>
-      </c>
-      <c r="K106">
+        <v>0.62574633847717209</v>
+      </c>
+      <c r="K116">
         <f>[12]Globals!L56</f>
-        <v>0.904320401526166</v>
-      </c>
-      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="L116">
         <f>[12]Globals!M56</f>
         <v>1</v>
       </c>
-      <c r="M106">
+      <c r="M116">
         <f>[12]Globals!N56</f>
-        <v>0.53584222175049956</v>
-      </c>
-      <c r="N106">
+        <v>0.44781866152044175</v>
+      </c>
+      <c r="N116">
         <f>[12]Globals!O56</f>
-        <v>0.72355626564231701</v>
-      </c>
-      <c r="O106">
+        <v>0.71663968547641077</v>
+      </c>
+      <c r="O116">
         <f>[12]Globals!P56</f>
-        <v>0.78823529411764703</v>
+        <v>0.71663968547641077</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107" t="str">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
         <f>[12]Globals!B57</f>
         <v>Med</v>
       </c>
-      <c r="B107">
+      <c r="B117">
         <f>[12]Globals!C57</f>
-        <v>5.7834566500000335</v>
-      </c>
-      <c r="C107">
+        <v>4.4754036999998448</v>
+      </c>
+      <c r="C117">
         <f>[12]Globals!D57</f>
-        <v>14.343265450000136</v>
-      </c>
-      <c r="D107">
+        <v>14.977971399999891</v>
+      </c>
+      <c r="D117">
         <f>[12]Globals!E57</f>
-        <v>1.8406297249999655</v>
-      </c>
-      <c r="E107">
+        <v>0.97376360624999592</v>
+      </c>
+      <c r="E117">
         <f>[12]Globals!F57</f>
-        <v>1.1008414062499625</v>
-      </c>
-      <c r="F107">
+        <v>0.70080352812492386</v>
+      </c>
+      <c r="F117">
         <f>[12]Globals!G57</f>
-        <v>0.15627187664042716</v>
-      </c>
-      <c r="G107">
+        <v>0.19736336641121222</v>
+      </c>
+      <c r="G117">
         <f>[12]Globals!H57</f>
-        <v>82</v>
-      </c>
-      <c r="H107">
+        <v>87</v>
+      </c>
+      <c r="H117">
         <f>[12]Globals!I57</f>
-        <v>82</v>
-      </c>
-      <c r="I107">
+        <v>87</v>
+      </c>
+      <c r="I117">
         <f>[12]Globals!J57</f>
-        <v>0.81707317073170727</v>
-      </c>
-      <c r="J107">
+        <v>0.77011494252873558</v>
+      </c>
+      <c r="J117">
         <f>[12]Globals!K57</f>
-        <v>0.68830498725723377</v>
-      </c>
-      <c r="K107">
+        <v>0.68035797565468559</v>
+      </c>
+      <c r="K117">
         <f>[12]Globals!L57</f>
-        <v>0.92281366899346962</v>
-      </c>
-      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="L117">
         <f>[12]Globals!M57</f>
         <v>1</v>
       </c>
-      <c r="M107">
+      <c r="M117">
         <f>[12]Globals!N57</f>
-        <v>0.56391624687458242</v>
-      </c>
-      <c r="N107">
+        <v>0.52022718731077511</v>
+      </c>
+      <c r="N117">
         <f>[12]Globals!O57</f>
-        <v>0.76576339558679618</v>
-      </c>
-      <c r="O107">
+        <v>0.77011494252873558</v>
+      </c>
+      <c r="O117">
         <f>[12]Globals!P57</f>
-        <v>0.81707317073170727</v>
+        <v>0.77011494252873558</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" t="str">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
         <f>[12]Globals!B58</f>
         <v>UQ</v>
       </c>
-      <c r="B108">
+      <c r="B118">
         <f>[12]Globals!C58</f>
-        <v>6.0486284499998249</v>
-      </c>
-      <c r="C108">
+        <v>4.5643811750003636</v>
+      </c>
+      <c r="C118">
         <f>[12]Globals!D58</f>
-        <v>15.033974750000212</v>
-      </c>
-      <c r="D108">
+        <v>20.530946225000065</v>
+      </c>
+      <c r="D118">
         <f>[12]Globals!E58</f>
-        <v>1.9200839062500312</v>
-      </c>
-      <c r="E108">
+        <v>1.3207699250000096</v>
+      </c>
+      <c r="E118">
         <f>[12]Globals!F58</f>
-        <v>1.2271982499999901</v>
-      </c>
-      <c r="F108">
+        <v>1.0265164390624855</v>
+      </c>
+      <c r="F118">
         <f>[12]Globals!G58</f>
-        <v>0.18498480049975555</v>
-      </c>
-      <c r="G108">
+        <v>0.29644392998884345</v>
+      </c>
+      <c r="G118">
         <f>[12]Globals!H58</f>
-        <v>85</v>
-      </c>
-      <c r="H108">
+        <v>93.5</v>
+      </c>
+      <c r="H118">
         <f>[12]Globals!I58</f>
-        <v>85</v>
-      </c>
-      <c r="I108">
+        <v>93.5</v>
+      </c>
+      <c r="I118">
         <f>[12]Globals!J58</f>
-        <v>0.911689497716895</v>
-      </c>
-      <c r="J108">
+        <v>0.81977513227513232</v>
+      </c>
+      <c r="J118">
         <f>[12]Globals!K58</f>
-        <v>0.69899213514520575</v>
-      </c>
-      <c r="K108">
+        <v>0.68961076469616311</v>
+      </c>
+      <c r="K118">
         <f>[12]Globals!L58</f>
-        <v>0.94994847917752567</v>
-      </c>
-      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="L118">
         <f>[12]Globals!M58</f>
         <v>1</v>
       </c>
-      <c r="M108">
+      <c r="M118">
         <f>[12]Globals!N58</f>
-        <v>0.63569938669792758</v>
-      </c>
-      <c r="N108">
+        <v>0.56770585516107075</v>
+      </c>
+      <c r="N118">
         <f>[12]Globals!O58</f>
-        <v>0.8195853896101446</v>
-      </c>
-      <c r="O108">
+        <v>0.81977513227513232</v>
+      </c>
+      <c r="O118">
         <f>[12]Globals!P58</f>
-        <v>0.911689497716895</v>
+        <v>0.81977513227513232</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109" t="str">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
         <f>[12]Globals!B59</f>
         <v>Max</v>
       </c>
-      <c r="B109">
+      <c r="B119">
         <f>[12]Globals!C59</f>
-        <v>6.730402399999889</v>
-      </c>
-      <c r="C109">
+        <v>5.6135907000009411</v>
+      </c>
+      <c r="C119">
         <f>[12]Globals!D59</f>
-        <v>21.71095390000005</v>
-      </c>
-      <c r="D109">
+        <v>26.11928910000017</v>
+      </c>
+      <c r="D119">
         <f>[12]Globals!E59</f>
-        <v>2.7548168500000401</v>
-      </c>
-      <c r="E109">
+        <v>1.7096369124999951</v>
+      </c>
+      <c r="E119">
         <f>[12]Globals!F59</f>
-        <v>2.0697697999999889</v>
-      </c>
-      <c r="F109">
+        <v>1.4207130437500131</v>
+      </c>
+      <c r="F119">
         <f>[12]Globals!G59</f>
-        <v>0.41617572177171541</v>
-      </c>
-      <c r="G109">
+        <v>0.68327393654514601</v>
+      </c>
+      <c r="G119">
         <f>[12]Globals!H59</f>
-        <v>96</v>
-      </c>
-      <c r="H109">
+        <v>101</v>
+      </c>
+      <c r="H119">
         <f>[12]Globals!I59</f>
-        <v>96</v>
-      </c>
-      <c r="I109">
+        <v>101</v>
+      </c>
+      <c r="I119">
         <f>[12]Globals!J59</f>
         <v>0.94366197183098588</v>
       </c>
-      <c r="J109">
+      <c r="J119">
         <f>[12]Globals!K59</f>
-        <v>0.71239161062183709</v>
-      </c>
-      <c r="K109">
+        <v>0.71402733132645479</v>
+      </c>
+      <c r="K119">
         <f>[12]Globals!L59</f>
-        <v>0.97524219294818604</v>
-      </c>
-      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="L119">
         <f>[12]Globals!M59</f>
         <v>1</v>
       </c>
-      <c r="M109">
+      <c r="M119">
         <f>[12]Globals!N59</f>
-        <v>0.67225687199525475</v>
-      </c>
-      <c r="N109">
+        <v>0.67380043942073897</v>
+      </c>
+      <c r="N119">
         <f>[12]Globals!O59</f>
-        <v>0.91267734160467184</v>
-      </c>
-      <c r="O109">
+        <v>0.94366197183098588</v>
+      </c>
+      <c r="O119">
         <f>[12]Globals!P59</f>
-        <v>0.94366197183098588</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <f>[11]Globals!B52</f>
-        <v>0</v>
-      </c>
-      <c r="B112" t="str">
-        <f>[11]Globals!C52</f>
-        <v>EX_T</v>
-      </c>
-      <c r="C112" t="str">
-        <f>[11]Globals!D52</f>
-        <v>HA_T</v>
-      </c>
-      <c r="D112" t="str">
-        <f>[11]Globals!E52</f>
-        <v>AW_T</v>
-      </c>
-      <c r="E112" t="str">
-        <f>[11]Globals!F52</f>
-        <v>AME_T</v>
-      </c>
-      <c r="F112" t="str">
-        <f>[11]Globals!G52</f>
-        <v>AME_T_PA</v>
-      </c>
-      <c r="G112" t="str">
-        <f>[11]Globals!H52</f>
-        <v>BL_LE</v>
-      </c>
-      <c r="H112" t="str">
-        <f>[11]Globals!I52</f>
-        <v>BL_AC</v>
-      </c>
-      <c r="I112" t="str">
-        <f>[11]Globals!J52</f>
-        <v>Q</v>
-      </c>
-      <c r="J112" t="str">
-        <f>[11]Globals!K52</f>
-        <v>AT</v>
-      </c>
-      <c r="K112" t="str">
-        <f>[11]Globals!L52</f>
-        <v>ET</v>
-      </c>
-      <c r="L112" t="str">
-        <f>[11]Globals!M52</f>
-        <v>WT</v>
-      </c>
-      <c r="M112" t="str">
-        <f>[11]Globals!N52</f>
-        <v>AG</v>
-      </c>
-      <c r="N112" t="str">
-        <f>[11]Globals!O52</f>
-        <v>EG</v>
-      </c>
-      <c r="O112" t="str">
-        <f>[11]Globals!P52</f>
-        <v>WT</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A113" t="str">
-        <f>[11]Globals!B53</f>
-        <v>Mean</v>
-      </c>
-      <c r="B113">
-        <f>[11]Globals!C53</f>
-        <v>4.441295888000039</v>
-      </c>
-      <c r="C113">
-        <f>[11]Globals!D53</f>
-        <v>16.689436578000038</v>
-      </c>
-      <c r="D113">
-        <f>[11]Globals!E53</f>
-        <v>1.0820637365000016</v>
-      </c>
-      <c r="E113">
-        <f>[11]Globals!F53</f>
-        <v>0.80448274349999915</v>
-      </c>
-      <c r="F113">
-        <f>[11]Globals!G53</f>
-        <v>0.25712896818432773</v>
-      </c>
-      <c r="G113">
-        <f>[11]Globals!H53</f>
-        <v>86.98</v>
-      </c>
-      <c r="H113">
-        <f>[11]Globals!I53</f>
-        <v>86.98</v>
-      </c>
-      <c r="I113">
-        <f>[11]Globals!J53</f>
-        <v>0.77767796129395361</v>
-      </c>
-      <c r="J113">
-        <f>[11]Globals!K53</f>
-        <v>0.66614349935780548</v>
-      </c>
-      <c r="K113">
-        <f>[11]Globals!L53</f>
-        <v>0.99767952710738528</v>
-      </c>
-      <c r="L113">
-        <f>[11]Globals!M53</f>
-        <v>1</v>
-      </c>
-      <c r="M113">
-        <f>[11]Globals!N53</f>
-        <v>0.52036907397139931</v>
-      </c>
-      <c r="N113">
-        <f>[11]Globals!O53</f>
-        <v>0.77608415854106483</v>
-      </c>
-      <c r="O113">
-        <f>[11]Globals!P53</f>
-        <v>0.77767796129395361</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114" t="str">
-        <f>[11]Globals!B54</f>
-        <v>Stdev</v>
-      </c>
-      <c r="B114">
-        <f>[11]Globals!C54</f>
-        <v>0.29876857760885001</v>
-      </c>
-      <c r="C114">
-        <f>[11]Globals!D54</f>
-        <v>3.7988581767564398</v>
-      </c>
-      <c r="D114">
-        <f>[11]Globals!E54</f>
-        <v>0.23927966918500626</v>
-      </c>
-      <c r="E114">
-        <f>[11]Globals!F54</f>
-        <v>0.23505447685749969</v>
-      </c>
-      <c r="F114">
-        <f>[11]Globals!G54</f>
-        <v>0.12927212702536459</v>
-      </c>
-      <c r="G114">
-        <f>[11]Globals!H54</f>
-        <v>8.447895523472706</v>
-      </c>
-      <c r="H114">
-        <f>[11]Globals!I54</f>
-        <v>8.447895523472706</v>
-      </c>
-      <c r="I114">
-        <f>[11]Globals!J54</f>
-        <v>7.8006721312238403E-2</v>
-      </c>
-      <c r="J114">
-        <f>[11]Globals!K54</f>
-        <v>3.60761928357256E-2</v>
-      </c>
-      <c r="K114">
-        <f>[11]Globals!L54</f>
-        <v>1.1543425104987926E-2</v>
-      </c>
-      <c r="L114">
-        <f>[11]Globals!M54</f>
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <f>[11]Globals!N54</f>
-        <v>7.6779163473359544E-2</v>
-      </c>
-      <c r="N114">
-        <f>[11]Globals!O54</f>
-        <v>8.0269792805854306E-2</v>
-      </c>
-      <c r="O114">
-        <f>[11]Globals!P54</f>
-        <v>7.8006721312238403E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A115" t="str">
-        <f>[11]Globals!B55</f>
-        <v>Min</v>
-      </c>
-      <c r="B115">
-        <f>[11]Globals!C55</f>
-        <v>4.0213775999998234</v>
-      </c>
-      <c r="C115">
-        <f>[11]Globals!D55</f>
-        <v>12.529409499999931</v>
-      </c>
-      <c r="D115">
-        <f>[11]Globals!E55</f>
-        <v>0.82059256874999775</v>
-      </c>
-      <c r="E115">
-        <f>[11]Globals!F55</f>
-        <v>0.54355457500000881</v>
-      </c>
-      <c r="F115">
-        <f>[11]Globals!G55</f>
-        <v>0.1498526533779676</v>
-      </c>
-      <c r="G115">
-        <f>[11]Globals!H55</f>
-        <v>71</v>
-      </c>
-      <c r="H115">
-        <f>[11]Globals!I55</f>
-        <v>71</v>
-      </c>
-      <c r="I115">
-        <f>[11]Globals!J55</f>
-        <v>0.6633663366336634</v>
-      </c>
-      <c r="J115">
-        <f>[11]Globals!K55</f>
-        <v>0.5868944419252039</v>
-      </c>
-      <c r="K115">
-        <f>[11]Globals!L55</f>
-        <v>0.93616713138106566</v>
-      </c>
-      <c r="L115">
-        <f>[11]Globals!M55</f>
-        <v>1</v>
-      </c>
-      <c r="M115">
-        <f>[11]Globals!N55</f>
-        <v>0.40124415927539447</v>
-      </c>
-      <c r="N115">
-        <f>[11]Globals!O55</f>
-        <v>0.64003263063807547</v>
-      </c>
-      <c r="O115">
-        <f>[11]Globals!P55</f>
-        <v>0.6633663366336634</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A116" t="str">
-        <f>[11]Globals!B56</f>
-        <v>LQ</v>
-      </c>
-      <c r="B116">
-        <f>[11]Globals!C56</f>
-        <v>4.1981180249995731</v>
-      </c>
-      <c r="C116">
-        <f>[11]Globals!D56</f>
-        <v>14.242425150001026</v>
-      </c>
-      <c r="D116">
-        <f>[11]Globals!E56</f>
-        <v>0.92796714531257685</v>
-      </c>
-      <c r="E116">
-        <f>[11]Globals!F56</f>
-        <v>0.65244255625000802</v>
-      </c>
-      <c r="F116">
-        <f>[11]Globals!G56</f>
-        <v>0.17888818776599452</v>
-      </c>
-      <c r="G116">
-        <f>[11]Globals!H56</f>
-        <v>81.75</v>
-      </c>
-      <c r="H116">
-        <f>[11]Globals!I56</f>
-        <v>81.75</v>
-      </c>
-      <c r="I116">
-        <f>[11]Globals!J56</f>
-        <v>0.71663968547641077</v>
-      </c>
-      <c r="J116">
-        <f>[11]Globals!K56</f>
-        <v>0.62574633847717209</v>
-      </c>
-      <c r="K116">
-        <f>[11]Globals!L56</f>
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <f>[11]Globals!M56</f>
-        <v>1</v>
-      </c>
-      <c r="M116">
-        <f>[11]Globals!N56</f>
-        <v>0.44781866152044175</v>
-      </c>
-      <c r="N116">
-        <f>[11]Globals!O56</f>
-        <v>0.71663968547641077</v>
-      </c>
-      <c r="O116">
-        <f>[11]Globals!P56</f>
-        <v>0.71663968547641077</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A117" t="str">
-        <f>[11]Globals!B57</f>
-        <v>Med</v>
-      </c>
-      <c r="B117">
-        <f>[11]Globals!C57</f>
-        <v>4.4754036999998448</v>
-      </c>
-      <c r="C117">
-        <f>[11]Globals!D57</f>
-        <v>14.977971399999891</v>
-      </c>
-      <c r="D117">
-        <f>[11]Globals!E57</f>
-        <v>0.97376360624999592</v>
-      </c>
-      <c r="E117">
-        <f>[11]Globals!F57</f>
-        <v>0.70080352812492386</v>
-      </c>
-      <c r="F117">
-        <f>[11]Globals!G57</f>
-        <v>0.19736336641121222</v>
-      </c>
-      <c r="G117">
-        <f>[11]Globals!H57</f>
-        <v>87</v>
-      </c>
-      <c r="H117">
-        <f>[11]Globals!I57</f>
-        <v>87</v>
-      </c>
-      <c r="I117">
-        <f>[11]Globals!J57</f>
-        <v>0.77011494252873558</v>
-      </c>
-      <c r="J117">
-        <f>[11]Globals!K57</f>
-        <v>0.68035797565468559</v>
-      </c>
-      <c r="K117">
-        <f>[11]Globals!L57</f>
-        <v>1</v>
-      </c>
-      <c r="L117">
-        <f>[11]Globals!M57</f>
-        <v>1</v>
-      </c>
-      <c r="M117">
-        <f>[11]Globals!N57</f>
-        <v>0.52022718731077511</v>
-      </c>
-      <c r="N117">
-        <f>[11]Globals!O57</f>
-        <v>0.77011494252873558</v>
-      </c>
-      <c r="O117">
-        <f>[11]Globals!P57</f>
-        <v>0.77011494252873558</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A118" t="str">
-        <f>[11]Globals!B58</f>
-        <v>UQ</v>
-      </c>
-      <c r="B118">
-        <f>[11]Globals!C58</f>
-        <v>4.5643811750003636</v>
-      </c>
-      <c r="C118">
-        <f>[11]Globals!D58</f>
-        <v>20.530946225000065</v>
-      </c>
-      <c r="D118">
-        <f>[11]Globals!E58</f>
-        <v>1.3207699250000096</v>
-      </c>
-      <c r="E118">
-        <f>[11]Globals!F58</f>
-        <v>1.0265164390624855</v>
-      </c>
-      <c r="F118">
-        <f>[11]Globals!G58</f>
-        <v>0.29644392998884345</v>
-      </c>
-      <c r="G118">
-        <f>[11]Globals!H58</f>
-        <v>93.5</v>
-      </c>
-      <c r="H118">
-        <f>[11]Globals!I58</f>
-        <v>93.5</v>
-      </c>
-      <c r="I118">
-        <f>[11]Globals!J58</f>
-        <v>0.81977513227513232</v>
-      </c>
-      <c r="J118">
-        <f>[11]Globals!K58</f>
-        <v>0.68961076469616311</v>
-      </c>
-      <c r="K118">
-        <f>[11]Globals!L58</f>
-        <v>1</v>
-      </c>
-      <c r="L118">
-        <f>[11]Globals!M58</f>
-        <v>1</v>
-      </c>
-      <c r="M118">
-        <f>[11]Globals!N58</f>
-        <v>0.56770585516107075</v>
-      </c>
-      <c r="N118">
-        <f>[11]Globals!O58</f>
-        <v>0.81977513227513232</v>
-      </c>
-      <c r="O118">
-        <f>[11]Globals!P58</f>
-        <v>0.81977513227513232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A119" t="str">
-        <f>[11]Globals!B59</f>
-        <v>Max</v>
-      </c>
-      <c r="B119">
-        <f>[11]Globals!C59</f>
-        <v>5.6135907000009411</v>
-      </c>
-      <c r="C119">
-        <f>[11]Globals!D59</f>
-        <v>26.11928910000017</v>
-      </c>
-      <c r="D119">
-        <f>[11]Globals!E59</f>
-        <v>1.7096369124999951</v>
-      </c>
-      <c r="E119">
-        <f>[11]Globals!F59</f>
-        <v>1.4207130437500131</v>
-      </c>
-      <c r="F119">
-        <f>[11]Globals!G59</f>
-        <v>0.68327393654514601</v>
-      </c>
-      <c r="G119">
-        <f>[11]Globals!H59</f>
-        <v>101</v>
-      </c>
-      <c r="H119">
-        <f>[11]Globals!I59</f>
-        <v>101</v>
-      </c>
-      <c r="I119">
-        <f>[11]Globals!J59</f>
-        <v>0.94366197183098588</v>
-      </c>
-      <c r="J119">
-        <f>[11]Globals!K59</f>
-        <v>0.71402733132645479</v>
-      </c>
-      <c r="K119">
-        <f>[11]Globals!L59</f>
-        <v>1</v>
-      </c>
-      <c r="L119">
-        <f>[11]Globals!M59</f>
-        <v>1</v>
-      </c>
-      <c r="M119">
-        <f>[11]Globals!N59</f>
-        <v>0.67380043942073897</v>
-      </c>
-      <c r="N119">
-        <f>[11]Globals!O59</f>
-        <v>0.94366197183098588</v>
-      </c>
-      <c r="O119">
-        <f>[11]Globals!P59</f>
         <v>0.94366197183098588</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z2:Z39">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/experiments/results/initial/Aggregate Statistics.xlsx
+++ b/experiments/results/initial/Aggregate Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Desktop/ASH-Planner/experiments/results/initial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Thesis/ASH - Planner/experiments/results/initial/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18963882-D9A3-4C96-91EF-7958D22030FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online" sheetId="1" r:id="rId1"/>
@@ -5392,12 +5392,12 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>[1]Globals!B52</f>
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>[1]Globals!B53</f>
         <v>Mean</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>[1]Globals!B54</f>
         <v>Stdev</v>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]Globals!B55</f>
         <v>Min</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]Globals!B56</f>
         <v>LQ</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]Globals!B57</f>
         <v>Med</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]Globals!B58</f>
         <v>UQ</v>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]Globals!B59</f>
         <v>Max</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>[2]Globals!B52</f>
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[2]Globals!B53</f>
         <v>Mean</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[2]Globals!B54</f>
         <v>Stdev</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[2]Globals!B55</f>
         <v>Min</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[2]Globals!B56</f>
         <v>LQ</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[2]Globals!B57</f>
         <v>Med</v>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[2]Globals!B58</f>
         <v>UQ</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[2]Globals!B59</f>
         <v>Max</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>[3]Globals!B52</f>
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>[3]Globals!B53</f>
         <v>Mean</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>[3]Globals!B54</f>
         <v>Stdev</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[3]Globals!B55</f>
         <v>Min</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[3]Globals!B56</f>
         <v>LQ</v>
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>[3]Globals!B57</f>
         <v>Med</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>[3]Globals!B58</f>
         <v>UQ</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>[3]Globals!B59</f>
         <v>Max</v>
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>[4]Globals!B52</f>
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[4]Globals!B53</f>
         <v>Mean</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>[4]Globals!B54</f>
         <v>Stdev</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>[4]Globals!B55</f>
         <v>Min</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[4]Globals!B56</f>
         <v>LQ</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>[4]Globals!B57</f>
         <v>Med</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[4]Globals!B58</f>
         <v>UQ</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>[4]Globals!B59</f>
         <v>Max</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>[5]Globals!B52</f>
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>[5]Globals!B53</f>
         <v>Mean</v>
@@ -8787,7 +8787,7 @@
         <v>0.81246265741239165</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>[5]Globals!B54</f>
         <v>Stdev</v>
@@ -8849,7 +8849,7 @@
         <v>8.6642406566445923E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>[5]Globals!B55</f>
         <v>Min</v>
@@ -8911,7 +8911,7 @@
         <v>0.68831168831168832</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>[5]Globals!B56</f>
         <v>LQ</v>
@@ -8973,7 +8973,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>[5]Globals!B57</f>
         <v>Med</v>
@@ -9035,7 +9035,7 @@
         <v>0.77958035907419421</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>[5]Globals!B58</f>
         <v>UQ</v>
@@ -9097,7 +9097,7 @@
         <v>0.89830508474576276</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>[5]Globals!B59</f>
         <v>Max</v>
@@ -9159,7 +9159,7 @@
         <v>0.96363636363636362</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>[6]Globals!B52</f>
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>[6]Globals!B53</f>
         <v>Mean</v>
@@ -9294,7 +9294,7 @@
         <v>0.80991156501196626</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>[6]Globals!B54</f>
         <v>Stdev</v>
@@ -9356,7 +9356,7 @@
         <v>9.8573841322420544E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>[6]Globals!B55</f>
         <v>Min</v>
@@ -9418,7 +9418,7 @@
         <v>0.67088607594936711</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>[6]Globals!B56</f>
         <v>LQ</v>
@@ -9480,7 +9480,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>[6]Globals!B57</f>
         <v>Med</v>
@@ -9542,7 +9542,7 @@
         <v>0.80303030303030298</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>[6]Globals!B58</f>
         <v>UQ</v>
@@ -9604,7 +9604,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>[6]Globals!B59</f>
         <v>Max</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>[7]Globals!B52</f>
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>[7]Globals!B53</f>
         <v>Mean</v>
@@ -9801,7 +9801,7 @@
         <v>0.76479077199277257</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>[7]Globals!B54</f>
         <v>Stdev</v>
@@ -9863,7 +9863,7 @@
         <v>8.4318306335268198E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>[7]Globals!B55</f>
         <v>Min</v>
@@ -9925,7 +9925,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>[7]Globals!B56</f>
         <v>LQ</v>
@@ -9987,7 +9987,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>[7]Globals!B57</f>
         <v>Med</v>
@@ -10049,7 +10049,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>[7]Globals!B58</f>
         <v>UQ</v>
@@ -10111,7 +10111,7 @@
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>[7]Globals!B59</f>
         <v>Max</v>
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>[8]Globals!B52</f>
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>[8]Globals!B53</f>
         <v>Mean</v>
@@ -10308,7 +10308,7 @@
         <v>0.77452102910279952</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>[8]Globals!B54</f>
         <v>Stdev</v>
@@ -10370,7 +10370,7 @@
         <v>9.0813546332030134E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>[8]Globals!B55</f>
         <v>Min</v>
@@ -10432,7 +10432,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>[8]Globals!B56</f>
         <v>LQ</v>
@@ -10494,7 +10494,7 @@
         <v>0.67948717948717952</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>[8]Globals!B57</f>
         <v>Med</v>
@@ -10556,7 +10556,7 @@
         <v>0.76811594202898548</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>[8]Globals!B58</f>
         <v>UQ</v>
@@ -10618,7 +10618,7 @@
         <v>0.87757496740547591</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>[8]Globals!B59</f>
         <v>Max</v>
@@ -10680,7 +10680,7 @@
         <v>0.92982456140350878</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>[9]Globals!B52</f>
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>[9]Globals!B53</f>
         <v>Mean</v>
@@ -10815,7 +10815,7 @@
         <v>0.82289568297956972</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>[9]Globals!B54</f>
         <v>Stdev</v>
@@ -10877,7 +10877,7 @@
         <v>0.10493093605563887</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>[9]Globals!B55</f>
         <v>Min</v>
@@ -10939,7 +10939,7 @@
         <v>0.53208978821536002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>[9]Globals!B56</f>
         <v>LQ</v>
@@ -11001,7 +11001,7 @@
         <v>0.77235364875701684</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>[9]Globals!B57</f>
         <v>Med</v>
@@ -11063,7 +11063,7 @@
         <v>0.81719470474490552</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>[9]Globals!B58</f>
         <v>UQ</v>
@@ -11125,7 +11125,7 @@
         <v>0.9178082191780822</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>[9]Globals!B59</f>
         <v>Max</v>
@@ -11187,7 +11187,7 @@
         <v>0.95714285714285718</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>[10]Globals!B52</f>
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>[10]Globals!B53</f>
         <v>Mean</v>
@@ -11322,7 +11322,7 @@
         <v>0.80532483496000429</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>[10]Globals!B54</f>
         <v>Stdev</v>
@@ -11384,7 +11384,7 @@
         <v>8.2594686604439527E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>[10]Globals!B55</f>
         <v>Min</v>
@@ -11446,7 +11446,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>[10]Globals!B56</f>
         <v>LQ</v>
@@ -11508,7 +11508,7 @@
         <v>0.73830891330891335</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>[10]Globals!B57</f>
         <v>Med</v>
@@ -11570,7 +11570,7 @@
         <v>0.78823529411764703</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>[10]Globals!B58</f>
         <v>UQ</v>
@@ -11632,7 +11632,7 @@
         <v>0.84545094936708853</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>[10]Globals!B59</f>
         <v>Max</v>
@@ -11694,7 +11694,7 @@
         <v>0.97101449275362317</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>[11]Globals!B52</f>
         <v>0</v>
@@ -11767,7 +11767,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>[11]Globals!B53</f>
         <v>Mean</v>
@@ -11829,7 +11829,7 @@
         <v>0.83149302888349408</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>[11]Globals!B54</f>
         <v>Stdev</v>
@@ -11891,7 +11891,7 @@
         <v>7.3229435634959053E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>[11]Globals!B55</f>
         <v>Min</v>
@@ -11953,7 +11953,7 @@
         <v>0.69791666666666663</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>[11]Globals!B56</f>
         <v>LQ</v>
@@ -12015,7 +12015,7 @@
         <v>0.78823529411764703</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>[11]Globals!B57</f>
         <v>Med</v>
@@ -12077,7 +12077,7 @@
         <v>0.81707317073170727</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[11]Globals!B58</f>
         <v>UQ</v>
@@ -12139,7 +12139,7 @@
         <v>0.911689497716895</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[11]Globals!B59</f>
         <v>Max</v>
@@ -12201,7 +12201,7 @@
         <v>0.94366197183098588</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <f>[12]Globals!B52</f>
         <v>0</v>
@@ -12274,7 +12274,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[12]Globals!B53</f>
         <v>Mean</v>
@@ -12336,7 +12336,7 @@
         <v>0.77767796129395361</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>[12]Globals!B54</f>
         <v>Stdev</v>
@@ -12398,7 +12398,7 @@
         <v>7.8006721312238403E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>[12]Globals!B55</f>
         <v>Min</v>
@@ -12460,7 +12460,7 @@
         <v>0.6633663366336634</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>[12]Globals!B56</f>
         <v>LQ</v>
@@ -12522,7 +12522,7 @@
         <v>0.71663968547641077</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>[12]Globals!B57</f>
         <v>Med</v>
@@ -12584,7 +12584,7 @@
         <v>0.77011494252873558</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>[12]Globals!B58</f>
         <v>UQ</v>
@@ -12646,7 +12646,7 @@
         <v>0.81977513227513232</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[12]Globals!B59</f>
         <v>Max</v>

--- a/experiments/results/initial/Aggregate Statistics.xlsx
+++ b/experiments/results/initial/Aggregate Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Thesis/ASH - Planner/experiments/results/initial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/oxk312_student_bham_ac_uk/Documents/Desktop/ASH - Planner/experiments/results/initial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18963882-D9A3-4C96-91EF-7958D22030FB}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6549ACC6-1C30-482A-B20E-DAEAC2524C19}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="15030" yWindow="8540" windowWidth="17420" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online" sheetId="1" r:id="rId1"/>
@@ -5392,7 +5392,7 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/initial/Aggregate Statistics.xlsx
+++ b/experiments/results/initial/Aggregate Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/oxk312_student_bham_ac_uk/Documents/Desktop/ASH - Planner/experiments/results/initial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e53eb9bd3f029/Desktop/ASH-Planner/experiments/results/initial/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC104837291955FA5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6549ACC6-1C30-482A-B20E-DAEAC2524C19}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15030" yWindow="8540" windowWidth="17420" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Online" sheetId="1" r:id="rId1"/>
@@ -4858,16 +4858,16 @@
             <v>4.324555467822172E-2</v>
           </cell>
           <cell r="L54">
-            <v>3.4260211949964557E-2</v>
+            <v>3.4260211949964564E-2</v>
           </cell>
           <cell r="M54">
             <v>5.834996447215153E-2</v>
           </cell>
           <cell r="N54">
-            <v>7.9947797581415639E-2</v>
+            <v>7.9947797581415403E-2</v>
           </cell>
           <cell r="O54">
-            <v>6.5392041961292557E-2</v>
+            <v>6.5392041961292544E-2</v>
           </cell>
           <cell r="P54">
             <v>0.10493093605563887</v>
@@ -5005,7 +5005,7 @@
             <v>1</v>
           </cell>
           <cell r="N57">
-            <v>0.55049197499386282</v>
+            <v>0.55049197499386293</v>
           </cell>
           <cell r="O57">
             <v>0.70077464242638188</v>
@@ -5046,7 +5046,7 @@
             <v>0.6829208263781259</v>
           </cell>
           <cell r="L58">
-            <v>0.84989496784968122</v>
+            <v>0.84989496784968133</v>
           </cell>
           <cell r="M58">
             <v>1</v>
@@ -5055,7 +5055,7 @@
             <v>0.62518650418588362</v>
           </cell>
           <cell r="O58">
-            <v>0.74718771150228414</v>
+            <v>0.74718771150228425</v>
           </cell>
           <cell r="P58">
             <v>0.9178082191780822</v>
@@ -5102,7 +5102,7 @@
             <v>0.66294053441504674</v>
           </cell>
           <cell r="O59">
-            <v>0.82203402544090443</v>
+            <v>0.82203402544090431</v>
           </cell>
           <cell r="P59">
             <v>0.95714285714285718</v>
@@ -5395,9 +5395,9 @@
       <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>[1]Globals!B52</f>
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>[1]Globals!B53</f>
         <v>Mean</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>[1]Globals!B54</f>
         <v>Stdev</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>1.8416329928857361E-2</v>
+        <v>1.8416329928857365E-2</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.10575763587109316</v>
+        <v>0.10575763587109309</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
@@ -5701,14 +5701,14 @@
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y9" si="1">AVERAGE(V4:X4)</f>
-        <v>9.8779558268251286E-2</v>
+        <v>9.8779558268251258E-2</v>
       </c>
       <c r="Z4" t="b">
         <f>IF(Y4=MAX($Y$4,$Y$14,$Y$24,$Y$34),TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>[1]Globals!B55</f>
         <v>Min</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]Globals!B56</f>
         <v>LQ</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>[1]Globals!B57</f>
         <v>Med</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]Globals!B58</f>
         <v>UQ</v>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0.81559178218736639</v>
+        <v>0.8155917821873665</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>[1]Globals!B59</f>
         <v>Max</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>[2]Globals!B52</f>
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>[2]Globals!B53</f>
         <v>Mean</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>[2]Globals!B54</f>
         <v>Stdev</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[2]Globals!B55</f>
         <v>Min</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>[2]Globals!B56</f>
         <v>LQ</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>[2]Globals!B57</f>
         <v>Med</v>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>[2]Globals!B58</f>
         <v>UQ</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>[2]Globals!B59</f>
         <v>Max</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>[3]Globals!B52</f>
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>[3]Globals!B53</f>
         <v>Mean</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>[3]Globals!B54</f>
         <v>Stdev</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>[3]Globals!B55</f>
         <v>Min</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>[3]Globals!B56</f>
         <v>LQ</v>
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>[3]Globals!B57</f>
         <v>Med</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>[3]Globals!B58</f>
         <v>UQ</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>[3]Globals!B59</f>
         <v>Max</v>
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>[4]Globals!B52</f>
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>[4]Globals!B53</f>
         <v>Mean</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>[4]Globals!B54</f>
         <v>Stdev</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>[4]Globals!B55</f>
         <v>Min</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>[4]Globals!B56</f>
         <v>LQ</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>[4]Globals!B57</f>
         <v>Med</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>[4]Globals!B58</f>
         <v>UQ</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>[4]Globals!B59</f>
         <v>Max</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>[5]Globals!B52</f>
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>[5]Globals!B53</f>
         <v>Mean</v>
@@ -8787,7 +8787,7 @@
         <v>0.81246265741239165</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>[5]Globals!B54</f>
         <v>Stdev</v>
@@ -8849,7 +8849,7 @@
         <v>8.6642406566445923E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>[5]Globals!B55</f>
         <v>Min</v>
@@ -8911,7 +8911,7 @@
         <v>0.68831168831168832</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>[5]Globals!B56</f>
         <v>LQ</v>
@@ -8973,7 +8973,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>[5]Globals!B57</f>
         <v>Med</v>
@@ -9035,7 +9035,7 @@
         <v>0.77958035907419421</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>[5]Globals!B58</f>
         <v>UQ</v>
@@ -9097,7 +9097,7 @@
         <v>0.89830508474576276</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>[5]Globals!B59</f>
         <v>Max</v>
@@ -9159,7 +9159,7 @@
         <v>0.96363636363636362</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>[6]Globals!B52</f>
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>[6]Globals!B53</f>
         <v>Mean</v>
@@ -9294,7 +9294,7 @@
         <v>0.80991156501196626</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>[6]Globals!B54</f>
         <v>Stdev</v>
@@ -9356,7 +9356,7 @@
         <v>9.8573841322420544E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>[6]Globals!B55</f>
         <v>Min</v>
@@ -9418,7 +9418,7 @@
         <v>0.67088607594936711</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>[6]Globals!B56</f>
         <v>LQ</v>
@@ -9480,7 +9480,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>[6]Globals!B57</f>
         <v>Med</v>
@@ -9542,7 +9542,7 @@
         <v>0.80303030303030298</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>[6]Globals!B58</f>
         <v>UQ</v>
@@ -9604,7 +9604,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>[6]Globals!B59</f>
         <v>Max</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>[7]Globals!B52</f>
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>[7]Globals!B53</f>
         <v>Mean</v>
@@ -9801,7 +9801,7 @@
         <v>0.76479077199277257</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>[7]Globals!B54</f>
         <v>Stdev</v>
@@ -9863,7 +9863,7 @@
         <v>8.4318306335268198E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>[7]Globals!B55</f>
         <v>Min</v>
@@ -9925,7 +9925,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>[7]Globals!B56</f>
         <v>LQ</v>
@@ -9987,7 +9987,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>[7]Globals!B57</f>
         <v>Med</v>
@@ -10049,7 +10049,7 @@
         <v>0.72602739726027399</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>[7]Globals!B58</f>
         <v>UQ</v>
@@ -10111,7 +10111,7 @@
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>[7]Globals!B59</f>
         <v>Max</v>
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>[8]Globals!B52</f>
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>[8]Globals!B53</f>
         <v>Mean</v>
@@ -10308,7 +10308,7 @@
         <v>0.77452102910279952</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>[8]Globals!B54</f>
         <v>Stdev</v>
@@ -10370,7 +10370,7 @@
         <v>9.0813546332030134E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>[8]Globals!B55</f>
         <v>Min</v>
@@ -10432,7 +10432,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>[8]Globals!B56</f>
         <v>LQ</v>
@@ -10494,7 +10494,7 @@
         <v>0.67948717948717952</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>[8]Globals!B57</f>
         <v>Med</v>
@@ -10556,7 +10556,7 @@
         <v>0.76811594202898548</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>[8]Globals!B58</f>
         <v>UQ</v>
@@ -10618,7 +10618,7 @@
         <v>0.87757496740547591</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>[8]Globals!B59</f>
         <v>Max</v>
@@ -10680,7 +10680,7 @@
         <v>0.92982456140350878</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>[9]Globals!B52</f>
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>[9]Globals!B53</f>
         <v>Mean</v>
@@ -10815,7 +10815,7 @@
         <v>0.82289568297956972</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>[9]Globals!B54</f>
         <v>Stdev</v>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="K84">
         <f>[9]Globals!L54</f>
-        <v>3.4260211949964557E-2</v>
+        <v>3.4260211949964564E-2</v>
       </c>
       <c r="L84">
         <f>[9]Globals!M54</f>
@@ -10866,18 +10866,18 @@
       </c>
       <c r="M84">
         <f>[9]Globals!N54</f>
-        <v>7.9947797581415639E-2</v>
+        <v>7.9947797581415403E-2</v>
       </c>
       <c r="N84">
         <f>[9]Globals!O54</f>
-        <v>6.5392041961292557E-2</v>
+        <v>6.5392041961292544E-2</v>
       </c>
       <c r="O84">
         <f>[9]Globals!P54</f>
         <v>0.10493093605563887</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>[9]Globals!B55</f>
         <v>Min</v>
@@ -10939,7 +10939,7 @@
         <v>0.53208978821536002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>[9]Globals!B56</f>
         <v>LQ</v>
@@ -11001,7 +11001,7 @@
         <v>0.77235364875701684</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>[9]Globals!B57</f>
         <v>Med</v>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="M87">
         <f>[9]Globals!N57</f>
-        <v>0.55049197499386282</v>
+        <v>0.55049197499386293</v>
       </c>
       <c r="N87">
         <f>[9]Globals!O57</f>
@@ -11063,7 +11063,7 @@
         <v>0.81719470474490552</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>[9]Globals!B58</f>
         <v>UQ</v>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="K88">
         <f>[9]Globals!L58</f>
-        <v>0.84989496784968122</v>
+        <v>0.84989496784968133</v>
       </c>
       <c r="L88">
         <f>[9]Globals!M58</f>
@@ -11118,14 +11118,14 @@
       </c>
       <c r="N88">
         <f>[9]Globals!O58</f>
-        <v>0.74718771150228414</v>
+        <v>0.74718771150228425</v>
       </c>
       <c r="O88">
         <f>[9]Globals!P58</f>
         <v>0.9178082191780822</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>[9]Globals!B59</f>
         <v>Max</v>
@@ -11180,14 +11180,14 @@
       </c>
       <c r="N89">
         <f>[9]Globals!O59</f>
-        <v>0.82203402544090443</v>
+        <v>0.82203402544090431</v>
       </c>
       <c r="O89">
         <f>[9]Globals!P59</f>
         <v>0.95714285714285718</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>[10]Globals!B52</f>
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>[10]Globals!B53</f>
         <v>Mean</v>
@@ -11322,7 +11322,7 @@
         <v>0.80532483496000429</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>[10]Globals!B54</f>
         <v>Stdev</v>
@@ -11384,7 +11384,7 @@
         <v>8.2594686604439527E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>[10]Globals!B55</f>
         <v>Min</v>
@@ -11446,7 +11446,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>[10]Globals!B56</f>
         <v>LQ</v>
@@ -11508,7 +11508,7 @@
         <v>0.73830891330891335</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>[10]Globals!B57</f>
         <v>Med</v>
@@ -11570,7 +11570,7 @@
         <v>0.78823529411764703</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>[10]Globals!B58</f>
         <v>UQ</v>
@@ -11632,7 +11632,7 @@
         <v>0.84545094936708853</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>[10]Globals!B59</f>
         <v>Max</v>
@@ -11694,7 +11694,7 @@
         <v>0.97101449275362317</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>[11]Globals!B52</f>
         <v>0</v>
@@ -11767,7 +11767,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>[11]Globals!B53</f>
         <v>Mean</v>
@@ -11829,7 +11829,7 @@
         <v>0.83149302888349408</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>[11]Globals!B54</f>
         <v>Stdev</v>
@@ -11891,7 +11891,7 @@
         <v>7.3229435634959053E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>[11]Globals!B55</f>
         <v>Min</v>
@@ -11953,7 +11953,7 @@
         <v>0.69791666666666663</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>[11]Globals!B56</f>
         <v>LQ</v>
@@ -12015,7 +12015,7 @@
         <v>0.78823529411764703</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>[11]Globals!B57</f>
         <v>Med</v>
@@ -12077,7 +12077,7 @@
         <v>0.81707317073170727</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>[11]Globals!B58</f>
         <v>UQ</v>
@@ -12139,7 +12139,7 @@
         <v>0.911689497716895</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>[11]Globals!B59</f>
         <v>Max</v>
@@ -12201,7 +12201,7 @@
         <v>0.94366197183098588</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>[12]Globals!B52</f>
         <v>0</v>
@@ -12274,7 +12274,7 @@
         <v>WT</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>[12]Globals!B53</f>
         <v>Mean</v>
@@ -12336,7 +12336,7 @@
         <v>0.77767796129395361</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>[12]Globals!B54</f>
         <v>Stdev</v>
@@ -12398,7 +12398,7 @@
         <v>7.8006721312238403E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>[12]Globals!B55</f>
         <v>Min</v>
@@ -12460,7 +12460,7 @@
         <v>0.6633663366336634</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>[12]Globals!B56</f>
         <v>LQ</v>
@@ -12522,7 +12522,7 @@
         <v>0.71663968547641077</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>[12]Globals!B57</f>
         <v>Med</v>
@@ -12584,7 +12584,7 @@
         <v>0.77011494252873558</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>[12]Globals!B58</f>
         <v>UQ</v>
@@ -12646,7 +12646,7 @@
         <v>0.81977513227513232</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>[12]Globals!B59</f>
         <v>Max</v>
